--- a/Автопарк № 18 (База 1С)/Для БД/АП_База.xlsx
+++ b/Автопарк № 18 (База 1С)/Для БД/АП_База.xlsx
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="ТабРаб">'Все работники'!$A$2:$I$165</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="391">
   <si>
     <t>Телефон</t>
   </si>
@@ -1163,6 +1163,39 @@
   </si>
   <si>
     <t>Фамилия И. О.</t>
+  </si>
+  <si>
+    <t>Протасеня</t>
+  </si>
+  <si>
+    <t>Д.</t>
+  </si>
+  <si>
+    <t>А.</t>
+  </si>
+  <si>
+    <t>+375 (44) 4791266</t>
+  </si>
+  <si>
+    <t>Кулик</t>
+  </si>
+  <si>
+    <t>Е.</t>
+  </si>
+  <si>
+    <t>Г.</t>
+  </si>
+  <si>
+    <t>+375 (44) 4653782</t>
+  </si>
+  <si>
+    <t>Шестак</t>
+  </si>
+  <si>
+    <t>Ильич</t>
+  </si>
+  <si>
+    <t>+375 (25) 9499905</t>
   </si>
 </sst>
 </file>
@@ -1243,7 +1276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1289,6 +1322,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1569,10 +1603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I188"/>
+  <dimension ref="A1:I191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="I189" sqref="I189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.6" x14ac:dyDescent="0.2"/>
@@ -1581,8 +1615,8 @@
     <col min="2" max="2" width="16" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.875" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.875" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.875" style="20" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="20.125" style="20" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="14.375" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.125" style="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5" style="8" bestFit="1" customWidth="1"/>
@@ -1631,9 +1665,9 @@
       <c r="D2" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="E2" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(" ",FALSE,B2:D2)</f>
-        <v>Авсянович Леонид Адамович</v>
+      <c r="E2" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B2:D2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F2" s="19" t="str">
         <f>B2 &amp; " " &amp; LEFT(C2,1) &amp; ". " &amp; IF(LEFT(D2,1) &lt;&gt; "", LEFT(D2,1) &amp; ".","")</f>
@@ -1660,12 +1694,12 @@
       <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="19" t="str">
-        <f t="shared" ref="E3:E66" si="0">_xlfn.TEXTJOIN(" ",FALSE,B3:D3)</f>
-        <v>Агафонова Наталья Николаевна</v>
+      <c r="E3" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B3:D3)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F3" s="19" t="str">
-        <f t="shared" ref="F3:F66" si="1">B3 &amp; " " &amp; LEFT(C3,1) &amp; ". " &amp; IF(LEFT(D3,1) &lt;&gt; "", LEFT(D3,1) &amp; ".","")</f>
+        <f>B3 &amp; " " &amp; LEFT(C3,1) &amp; ". " &amp; IF(LEFT(D3,1) &lt;&gt; "", LEFT(D3,1) &amp; ".","")</f>
         <v>Агафонова Н. Н.</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1689,12 +1723,12 @@
       <c r="D4" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Амос Ирина Васильевна</v>
+      <c r="E4" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B4:D4)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F4" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B4 &amp; " " &amp; LEFT(C4,1) &amp; ". " &amp; IF(LEFT(D4,1) &lt;&gt; "", LEFT(D4,1) &amp; ".","")</f>
         <v>Амос И. В.</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -1720,12 +1754,12 @@
       <c r="D5" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E5" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Андреев Денис Олегович</v>
+      <c r="E5" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B5:D5)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F5" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B5 &amp; " " &amp; LEFT(C5,1) &amp; ". " &amp; IF(LEFT(D5,1) &lt;&gt; "", LEFT(D5,1) &amp; ".","")</f>
         <v>Андреев Д. О.</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1749,12 +1783,12 @@
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Апарович Татьяна Геннадьевна</v>
+      <c r="E6" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B6:D6)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F6" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B6 &amp; " " &amp; LEFT(C6,1) &amp; ". " &amp; IF(LEFT(D6,1) &lt;&gt; "", LEFT(D6,1) &amp; ".","")</f>
         <v>Апарович Т. Г.</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -1780,12 +1814,12 @@
       <c r="D7" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E7" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Астапкович Валентина Васильевна</v>
+      <c r="E7" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B7:D7)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F7" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B7 &amp; " " &amp; LEFT(C7,1) &amp; ". " &amp; IF(LEFT(D7,1) &lt;&gt; "", LEFT(D7,1) &amp; ".","")</f>
         <v>Астапкович В. В.</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1811,12 +1845,12 @@
       <c r="D8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Ачеповский Виктор Александрович</v>
+      <c r="E8" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B8:D8)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F8" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B8 &amp; " " &amp; LEFT(C8,1) &amp; ". " &amp; IF(LEFT(D8,1) &lt;&gt; "", LEFT(D8,1) &amp; ".","")</f>
         <v>Ачеповский В. А.</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -1842,12 +1876,12 @@
       <c r="D9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Бабицкий Михаил Валерьевич</v>
+      <c r="E9" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B9:D9)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F9" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B9 &amp; " " &amp; LEFT(C9,1) &amp; ". " &amp; IF(LEFT(D9,1) &lt;&gt; "", LEFT(D9,1) &amp; ".","")</f>
         <v>Бабицкий М. В.</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -1871,12 +1905,12 @@
       <c r="D10" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Бабкевич Оксана Станиславовна</v>
+      <c r="E10" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B10:D10)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F10" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B10 &amp; " " &amp; LEFT(C10,1) &amp; ". " &amp; IF(LEFT(D10,1) &lt;&gt; "", LEFT(D10,1) &amp; ".","")</f>
         <v>Бабкевич О. С.</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -1902,12 +1936,12 @@
       <c r="D11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Барановский Сергей Александрович</v>
+      <c r="E11" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B11:D11)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F11" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B11 &amp; " " &amp; LEFT(C11,1) &amp; ". " &amp; IF(LEFT(D11,1) &lt;&gt; "", LEFT(D11,1) &amp; ".","")</f>
         <v>Барановский С. А.</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -1933,12 +1967,12 @@
       <c r="D12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Барсукова Ольга Сергеевна</v>
+      <c r="E12" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B12:D12)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F12" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B12 &amp; " " &amp; LEFT(C12,1) &amp; ". " &amp; IF(LEFT(D12,1) &lt;&gt; "", LEFT(D12,1) &amp; ".","")</f>
         <v>Барсукова О. С.</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -1964,12 +1998,12 @@
       <c r="D13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Бедрицкий Анатолий Викторович</v>
+      <c r="E13" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B13:D13)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F13" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B13 &amp; " " &amp; LEFT(C13,1) &amp; ". " &amp; IF(LEFT(D13,1) &lt;&gt; "", LEFT(D13,1) &amp; ".","")</f>
         <v>Бедрицкий А. В.</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1995,12 +2029,12 @@
       <c r="D14" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E14" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Белановский Альберт Георгеевич</v>
+      <c r="E14" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B14:D14)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F14" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B14 &amp; " " &amp; LEFT(C14,1) &amp; ". " &amp; IF(LEFT(D14,1) &lt;&gt; "", LEFT(D14,1) &amp; ".","")</f>
         <v>Белановский А. Г.</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -2026,12 +2060,12 @@
       <c r="D15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Белов Михаил Александрович</v>
+      <c r="E15" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B15:D15)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F15" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B15 &amp; " " &amp; LEFT(C15,1) &amp; ". " &amp; IF(LEFT(D15,1) &lt;&gt; "", LEFT(D15,1) &amp; ".","")</f>
         <v>Белов М. А.</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -2057,12 +2091,12 @@
       <c r="D16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Бельков Александр Валерьевич</v>
+      <c r="E16" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B16:D16)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F16" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B16 &amp; " " &amp; LEFT(C16,1) &amp; ". " &amp; IF(LEFT(D16,1) &lt;&gt; "", LEFT(D16,1) &amp; ".","")</f>
         <v>Бельков А. В.</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -2088,12 +2122,12 @@
       <c r="D17" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Берегенько Наталья Павловна</v>
+      <c r="E17" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B17:D17)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F17" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B17 &amp; " " &amp; LEFT(C17,1) &amp; ". " &amp; IF(LEFT(D17,1) &lt;&gt; "", LEFT(D17,1) &amp; ".","")</f>
         <v>Берегенько Н. П.</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -2119,9 +2153,9 @@
       <c r="D18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Близников Кирилл Анатольевич</v>
+      <c r="E18" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B18:D18)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F18" s="19" t="str">
         <f>B18 &amp; " " &amp; LEFT(C18,1) &amp; ". " &amp; IF(LEFT(D18,1) &lt;&gt; "", LEFT(D18,1) &amp; ".","")</f>
@@ -2150,12 +2184,12 @@
       <c r="D19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Богданова Елена Евгеньевна</v>
+      <c r="E19" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B19:D19)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F19" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B19 &amp; " " &amp; LEFT(C19,1) &amp; ". " &amp; IF(LEFT(D19,1) &lt;&gt; "", LEFT(D19,1) &amp; ".","")</f>
         <v>Богданова Е. Е.</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -2181,12 +2215,12 @@
       <c r="D20" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E20" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Богдановский Игорь Сергеевич</v>
+      <c r="E20" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B20:D20)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F20" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B20 &amp; " " &amp; LEFT(C20,1) &amp; ". " &amp; IF(LEFT(D20,1) &lt;&gt; "", LEFT(D20,1) &amp; ".","")</f>
         <v>Богдановский И. С.</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -2212,12 +2246,12 @@
       <c r="D21" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E21" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Богданчик Тамара Константиновна</v>
+      <c r="E21" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B21:D21)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F21" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B21 &amp; " " &amp; LEFT(C21,1) &amp; ". " &amp; IF(LEFT(D21,1) &lt;&gt; "", LEFT(D21,1) &amp; ".","")</f>
         <v>Богданчик Т. К.</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -2243,12 +2277,12 @@
       <c r="D22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Богуш Вячеслав Александрович</v>
+      <c r="E22" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B22:D22)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F22" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B22 &amp; " " &amp; LEFT(C22,1) &amp; ". " &amp; IF(LEFT(D22,1) &lt;&gt; "", LEFT(D22,1) &amp; ".","")</f>
         <v>Богуш В. А.</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -2274,12 +2308,12 @@
       <c r="D23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Бондаренко Александр Александрович</v>
+      <c r="E23" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B23:D23)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F23" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B23 &amp; " " &amp; LEFT(C23,1) &amp; ". " &amp; IF(LEFT(D23,1) &lt;&gt; "", LEFT(D23,1) &amp; ".","")</f>
         <v>Бондаренко А. А.</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -2303,12 +2337,12 @@
       <c r="D24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Бондаренко Лариса </v>
+      <c r="E24" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B24:D24)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F24" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B24 &amp; " " &amp; LEFT(C24,1) &amp; ". " &amp; IF(LEFT(D24,1) &lt;&gt; "", LEFT(D24,1) &amp; ".","")</f>
         <v xml:space="preserve">Бондаренко Л. </v>
       </c>
       <c r="G24" s="11" t="s">
@@ -2332,12 +2366,12 @@
       <c r="D25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Бондаренко Людмила </v>
+      <c r="E25" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B25:D25)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F25" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B25 &amp; " " &amp; LEFT(C25,1) &amp; ". " &amp; IF(LEFT(D25,1) &lt;&gt; "", LEFT(D25,1) &amp; ".","")</f>
         <v xml:space="preserve">Бондаренко Л. </v>
       </c>
       <c r="G25" s="1" t="s">
@@ -2361,12 +2395,12 @@
       <c r="D26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Бондарь Светлана Сергеевна</v>
+      <c r="E26" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B26:D26)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F26" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B26 &amp; " " &amp; LEFT(C26,1) &amp; ". " &amp; IF(LEFT(D26,1) &lt;&gt; "", LEFT(D26,1) &amp; ".","")</f>
         <v>Бондарь С. С.</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -2392,12 +2426,12 @@
       <c r="D27" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E27" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Бруцкая Светлана Петровна</v>
+      <c r="E27" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B27:D27)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F27" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B27 &amp; " " &amp; LEFT(C27,1) &amp; ". " &amp; IF(LEFT(D27,1) &lt;&gt; "", LEFT(D27,1) &amp; ".","")</f>
         <v>Бруцкая С. П.</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -2423,12 +2457,12 @@
       <c r="D28" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Булавский Илья Николаевич</v>
+      <c r="E28" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B28:D28)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F28" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B28 &amp; " " &amp; LEFT(C28,1) &amp; ". " &amp; IF(LEFT(D28,1) &lt;&gt; "", LEFT(D28,1) &amp; ".","")</f>
         <v>Булавский И. Н.</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -2454,12 +2488,12 @@
       <c r="D29" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E29" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Бурачевская Людмила Францевна</v>
+      <c r="E29" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B29:D29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F29" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B29 &amp; " " &amp; LEFT(C29,1) &amp; ". " &amp; IF(LEFT(D29,1) &lt;&gt; "", LEFT(D29,1) &amp; ".","")</f>
         <v>Бурачевская Л. Ф.</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -2485,12 +2519,12 @@
       <c r="D30" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Бутьянов Владимир Алексеевич</v>
+      <c r="E30" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B30:D30)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F30" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B30 &amp; " " &amp; LEFT(C30,1) &amp; ". " &amp; IF(LEFT(D30,1) &lt;&gt; "", LEFT(D30,1) &amp; ".","")</f>
         <v>Бутьянов В. А.</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -2516,12 +2550,12 @@
       <c r="D31" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E31" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Быков Андрей Сергеевич</v>
+      <c r="E31" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B31:D31)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F31" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B31 &amp; " " &amp; LEFT(C31,1) &amp; ". " &amp; IF(LEFT(D31,1) &lt;&gt; "", LEFT(D31,1) &amp; ".","")</f>
         <v>Быков А. С.</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -2547,12 +2581,12 @@
       <c r="D32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Вайтехович Светлана Ивановна</v>
+      <c r="E32" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B32:D32)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F32" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B32 &amp; " " &amp; LEFT(C32,1) &amp; ". " &amp; IF(LEFT(D32,1) &lt;&gt; "", LEFT(D32,1) &amp; ".","")</f>
         <v>Вайтехович С. И.</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -2578,12 +2612,12 @@
       <c r="D33" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Веремей Владислав Анатольевич</v>
+      <c r="E33" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B33:D33)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F33" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B33 &amp; " " &amp; LEFT(C33,1) &amp; ". " &amp; IF(LEFT(D33,1) &lt;&gt; "", LEFT(D33,1) &amp; ".","")</f>
         <v>Веремей В. А.</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -2609,12 +2643,12 @@
       <c r="D34" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E34" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Воеводина Анжела Викторовна</v>
+      <c r="E34" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B34:D34)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F34" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B34 &amp; " " &amp; LEFT(C34,1) &amp; ". " &amp; IF(LEFT(D34,1) &lt;&gt; "", LEFT(D34,1) &amp; ".","")</f>
         <v>Воеводина А. В.</v>
       </c>
       <c r="G34" s="1" t="s">
@@ -2638,12 +2672,12 @@
       <c r="D35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Войтехович Светлана Ивановна</v>
+      <c r="E35" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B35:D35)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F35" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B35 &amp; " " &amp; LEFT(C35,1) &amp; ". " &amp; IF(LEFT(D35,1) &lt;&gt; "", LEFT(D35,1) &amp; ".","")</f>
         <v>Войтехович С. И.</v>
       </c>
       <c r="G35" s="11" t="s">
@@ -2667,12 +2701,12 @@
       <c r="D36" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E36" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Волков Игорь Андреевич</v>
+      <c r="E36" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B36:D36)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F36" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B36 &amp; " " &amp; LEFT(C36,1) &amp; ". " &amp; IF(LEFT(D36,1) &lt;&gt; "", LEFT(D36,1) &amp; ".","")</f>
         <v>Волков И. А.</v>
       </c>
       <c r="G36" s="1" t="s">
@@ -2698,12 +2732,12 @@
       <c r="D37" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E37" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Волчек Ольга Викторовна</v>
+      <c r="E37" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B37:D37)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F37" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B37 &amp; " " &amp; LEFT(C37,1) &amp; ". " &amp; IF(LEFT(D37,1) &lt;&gt; "", LEFT(D37,1) &amp; ".","")</f>
         <v>Волчек О. В.</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -2729,12 +2763,12 @@
       <c r="D38" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Волчок Геннадий Алексеевич</v>
+      <c r="E38" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B38:D38)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F38" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B38 &amp; " " &amp; LEFT(C38,1) &amp; ". " &amp; IF(LEFT(D38,1) &lt;&gt; "", LEFT(D38,1) &amp; ".","")</f>
         <v>Волчок Г. А.</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -2760,12 +2794,12 @@
       <c r="D39" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E39" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Галаваченко Андрей Иванович</v>
+      <c r="E39" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B39:D39)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F39" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B39 &amp; " " &amp; LEFT(C39,1) &amp; ". " &amp; IF(LEFT(D39,1) &lt;&gt; "", LEFT(D39,1) &amp; ".","")</f>
         <v>Галаваченко А. И.</v>
       </c>
       <c r="G39" s="1" t="s">
@@ -2791,12 +2825,12 @@
       <c r="D40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Гамеза Александр Александрович</v>
+      <c r="E40" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B40:D40)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F40" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B40 &amp; " " &amp; LEFT(C40,1) &amp; ". " &amp; IF(LEFT(D40,1) &lt;&gt; "", LEFT(D40,1) &amp; ".","")</f>
         <v>Гамеза А. А.</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -2820,12 +2854,12 @@
       <c r="D41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Гапончик Ирина Ивановна</v>
+      <c r="E41" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B41:D41)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F41" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B41 &amp; " " &amp; LEFT(C41,1) &amp; ". " &amp; IF(LEFT(D41,1) &lt;&gt; "", LEFT(D41,1) &amp; ".","")</f>
         <v>Гапончик И. И.</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -2849,12 +2883,12 @@
       <c r="D42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E42" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Гарбунова Светлана Александровна</v>
+      <c r="E42" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B42:D42)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F42" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B42 &amp; " " &amp; LEFT(C42,1) &amp; ". " &amp; IF(LEFT(D42,1) &lt;&gt; "", LEFT(D42,1) &amp; ".","")</f>
         <v>Гарбунова С. А.</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -2880,12 +2914,12 @@
       <c r="D43" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Герасимчик Алексей Михайлович</v>
+      <c r="E43" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B43:D43)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F43" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B43 &amp; " " &amp; LEFT(C43,1) &amp; ". " &amp; IF(LEFT(D43,1) &lt;&gt; "", LEFT(D43,1) &amp; ".","")</f>
         <v>Герасимчик А. М.</v>
       </c>
       <c r="G43" s="11" t="s">
@@ -2909,12 +2943,12 @@
       <c r="D44" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E44" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Гигель Анатолий Геннадьевич</v>
+      <c r="E44" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B44:D44)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F44" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B44 &amp; " " &amp; LEFT(C44,1) &amp; ". " &amp; IF(LEFT(D44,1) &lt;&gt; "", LEFT(D44,1) &amp; ".","")</f>
         <v>Гигель А. Г.</v>
       </c>
       <c r="G44" s="11" t="s">
@@ -2936,12 +2970,12 @@
       <c r="D45" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Гладкая Алла Владимировна</v>
+      <c r="E45" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B45:D45)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F45" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B45 &amp; " " &amp; LEFT(C45,1) &amp; ". " &amp; IF(LEFT(D45,1) &lt;&gt; "", LEFT(D45,1) &amp; ".","")</f>
         <v>Гладкая А. В.</v>
       </c>
       <c r="G45" s="11" t="s">
@@ -2965,12 +2999,12 @@
       <c r="D46" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E46" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Головач Александр Петрович</v>
+      <c r="E46" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B46:D46)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F46" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B46 &amp; " " &amp; LEFT(C46,1) &amp; ". " &amp; IF(LEFT(D46,1) &lt;&gt; "", LEFT(D46,1) &amp; ".","")</f>
         <v>Головач А. П.</v>
       </c>
       <c r="G46" s="1" t="s">
@@ -2994,12 +3028,12 @@
       <c r="D47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E47" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Грабко Светлана Андреевна</v>
+      <c r="E47" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B47:D47)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F47" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B47 &amp; " " &amp; LEFT(C47,1) &amp; ". " &amp; IF(LEFT(D47,1) &lt;&gt; "", LEFT(D47,1) &amp; ".","")</f>
         <v>Грабко С. А.</v>
       </c>
       <c r="G47" s="1" t="s">
@@ -3025,12 +3059,12 @@
       <c r="D48" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E48" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Губанов Алексей Алексеевич</v>
+      <c r="E48" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B48:D48)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F48" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B48 &amp; " " &amp; LEFT(C48,1) &amp; ". " &amp; IF(LEFT(D48,1) &lt;&gt; "", LEFT(D48,1) &amp; ".","")</f>
         <v>Губанов А. А.</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -3056,12 +3090,12 @@
       <c r="D49" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E49" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Гулевич Дмитрий Геннадьевич</v>
+      <c r="E49" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B49:D49)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F49" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B49 &amp; " " &amp; LEFT(C49,1) &amp; ". " &amp; IF(LEFT(D49,1) &lt;&gt; "", LEFT(D49,1) &amp; ".","")</f>
         <v>Гулевич Д. Г.</v>
       </c>
       <c r="G49" s="1" t="s">
@@ -3087,12 +3121,12 @@
       <c r="D50" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E50" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Гуренко Владимир Владимирович</v>
+      <c r="E50" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B50:D50)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F50" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B50 &amp; " " &amp; LEFT(C50,1) &amp; ". " &amp; IF(LEFT(D50,1) &lt;&gt; "", LEFT(D50,1) &amp; ".","")</f>
         <v>Гуренко В. В.</v>
       </c>
       <c r="G50" s="1" t="s">
@@ -3118,12 +3152,12 @@
       <c r="D51" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E51" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Гурский Нестор Николаевич</v>
+      <c r="E51" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B51:D51)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F51" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B51 &amp; " " &amp; LEFT(C51,1) &amp; ". " &amp; IF(LEFT(D51,1) &lt;&gt; "", LEFT(D51,1) &amp; ".","")</f>
         <v>Гурский Н. Н.</v>
       </c>
       <c r="G51" s="1" t="s">
@@ -3149,12 +3183,12 @@
       <c r="D52" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E52" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Гусаковский Георгий Леонидович</v>
+      <c r="E52" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B52:D52)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F52" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B52 &amp; " " &amp; LEFT(C52,1) &amp; ". " &amp; IF(LEFT(D52,1) &lt;&gt; "", LEFT(D52,1) &amp; ".","")</f>
         <v>Гусаковский Г. Л.</v>
       </c>
       <c r="G52" s="1" t="s">
@@ -3178,12 +3212,12 @@
       <c r="D53" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E53" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Дергай Вероника Владимировна</v>
+      <c r="E53" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B53:D53)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F53" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B53 &amp; " " &amp; LEFT(C53,1) &amp; ". " &amp; IF(LEFT(D53,1) &lt;&gt; "", LEFT(D53,1) &amp; ".","")</f>
         <v>Дергай В. В.</v>
       </c>
       <c r="G53" s="1" t="s">
@@ -3209,12 +3243,12 @@
       <c r="D54" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E54" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Деревянко Олег Иванович</v>
+      <c r="E54" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B54:D54)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F54" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B54 &amp; " " &amp; LEFT(C54,1) &amp; ". " &amp; IF(LEFT(D54,1) &lt;&gt; "", LEFT(D54,1) &amp; ".","")</f>
         <v>Деревянко О. И.</v>
       </c>
       <c r="G54" s="1" t="s">
@@ -3240,12 +3274,12 @@
       <c r="D55" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E55" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Державский Александр Васильевич</v>
+      <c r="E55" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B55:D55)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F55" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B55 &amp; " " &amp; LEFT(C55,1) &amp; ". " &amp; IF(LEFT(D55,1) &lt;&gt; "", LEFT(D55,1) &amp; ".","")</f>
         <v>Державский А. В.</v>
       </c>
       <c r="G55" s="1" t="s">
@@ -3269,12 +3303,12 @@
       <c r="D56" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E56" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Державский Игорь Александрович</v>
+      <c r="E56" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B56:D56)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F56" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B56 &amp; " " &amp; LEFT(C56,1) &amp; ". " &amp; IF(LEFT(D56,1) &lt;&gt; "", LEFT(D56,1) &amp; ".","")</f>
         <v>Державский И. А.</v>
       </c>
       <c r="G56" s="1" t="s">
@@ -3300,12 +3334,12 @@
       <c r="D57" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E57" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Джумабаев Василий Михайлович</v>
+      <c r="E57" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B57:D57)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F57" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B57 &amp; " " &amp; LEFT(C57,1) &amp; ". " &amp; IF(LEFT(D57,1) &lt;&gt; "", LEFT(D57,1) &amp; ".","")</f>
         <v>Джумабаев В. М.</v>
       </c>
       <c r="G57" s="1" t="s">
@@ -3331,12 +3365,12 @@
       <c r="D58" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Дирко Людмила Михайловна</v>
+      <c r="E58" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B58:D58)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F58" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B58 &amp; " " &amp; LEFT(C58,1) &amp; ". " &amp; IF(LEFT(D58,1) &lt;&gt; "", LEFT(D58,1) &amp; ".","")</f>
         <v>Дирко Л. М.</v>
       </c>
       <c r="G58" s="1" t="s">
@@ -3362,12 +3396,12 @@
       <c r="D59" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E59" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Доматенко Екатерина Вальерьевна</v>
+      <c r="E59" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B59:D59)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F59" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B59 &amp; " " &amp; LEFT(C59,1) &amp; ". " &amp; IF(LEFT(D59,1) &lt;&gt; "", LEFT(D59,1) &amp; ".","")</f>
         <v>Доматенко Е. В.</v>
       </c>
       <c r="G59" s="1" t="s">
@@ -3393,12 +3427,12 @@
       <c r="D60" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E60" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Дыбо Виктория Александровна</v>
+      <c r="E60" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B60:D60)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F60" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B60 &amp; " " &amp; LEFT(C60,1) &amp; ". " &amp; IF(LEFT(D60,1) &lt;&gt; "", LEFT(D60,1) &amp; ".","")</f>
         <v>Дыбо В. А.</v>
       </c>
       <c r="G60" s="1" t="s">
@@ -3422,12 +3456,12 @@
       <c r="D61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Екименко Екатерина Михайловна</v>
+      <c r="E61" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B61:D61)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F61" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B61 &amp; " " &amp; LEFT(C61,1) &amp; ". " &amp; IF(LEFT(D61,1) &lt;&gt; "", LEFT(D61,1) &amp; ".","")</f>
         <v>Екименко Е. М.</v>
       </c>
       <c r="G61" s="1" t="s">
@@ -3451,12 +3485,12 @@
       <c r="D62" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E62" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Жерносек Марина Анатольевна</v>
+      <c r="E62" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B62:D62)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F62" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B62 &amp; " " &amp; LEFT(C62,1) &amp; ". " &amp; IF(LEFT(D62,1) &lt;&gt; "", LEFT(D62,1) &amp; ".","")</f>
         <v>Жерносек М. А.</v>
       </c>
       <c r="G62" s="1" t="s">
@@ -3482,12 +3516,12 @@
       <c r="D63" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E63" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Жерносек Юрий Семенович</v>
+      <c r="E63" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B63:D63)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F63" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B63 &amp; " " &amp; LEFT(C63,1) &amp; ". " &amp; IF(LEFT(D63,1) &lt;&gt; "", LEFT(D63,1) &amp; ".","")</f>
         <v>Жерносек Ю. С.</v>
       </c>
       <c r="G63" s="1" t="s">
@@ -3511,12 +3545,12 @@
       <c r="D64" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Журавкина Нина Михайловна</v>
+      <c r="E64" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B64:D64)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F64" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B64 &amp; " " &amp; LEFT(C64,1) &amp; ". " &amp; IF(LEFT(D64,1) &lt;&gt; "", LEFT(D64,1) &amp; ".","")</f>
         <v>Журавкина Н. М.</v>
       </c>
       <c r="G64" s="1" t="s">
@@ -3542,12 +3576,12 @@
       <c r="D65" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E65" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Забело Анатолий Анатольевич</v>
+      <c r="E65" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B65:D65)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F65" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B65 &amp; " " &amp; LEFT(C65,1) &amp; ". " &amp; IF(LEFT(D65,1) &lt;&gt; "", LEFT(D65,1) &amp; ".","")</f>
         <v>Забело А. А.</v>
       </c>
       <c r="G65" s="1" t="s">
@@ -3573,12 +3607,12 @@
       <c r="D66" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E66" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Залесский Александр Викторович</v>
+      <c r="E66" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B66:D66)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F66" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f>B66 &amp; " " &amp; LEFT(C66,1) &amp; ". " &amp; IF(LEFT(D66,1) &lt;&gt; "", LEFT(D66,1) &amp; ".","")</f>
         <v>Залесский А. В.</v>
       </c>
       <c r="G66" s="1" t="s">
@@ -3604,12 +3638,12 @@
       <c r="D67" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E67" s="19" t="str">
-        <f t="shared" ref="E67:E130" si="2">_xlfn.TEXTJOIN(" ",FALSE,B67:D67)</f>
-        <v>Зарембо Алексей Леонидович</v>
+      <c r="E67" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B67:D67)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F67" s="19" t="str">
-        <f t="shared" ref="F67:F130" si="3">B67 &amp; " " &amp; LEFT(C67,1) &amp; ". " &amp; IF(LEFT(D67,1) &lt;&gt; "", LEFT(D67,1) &amp; ".","")</f>
+        <f>B67 &amp; " " &amp; LEFT(C67,1) &amp; ". " &amp; IF(LEFT(D67,1) &lt;&gt; "", LEFT(D67,1) &amp; ".","")</f>
         <v>Зарембо А. Л.</v>
       </c>
       <c r="G67" s="1" t="s">
@@ -3635,12 +3669,12 @@
       <c r="D68" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E68" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Зарембо Светлана Федоровна</v>
+      <c r="E68" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B68:D68)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F68" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f>B68 &amp; " " &amp; LEFT(C68,1) &amp; ". " &amp; IF(LEFT(D68,1) &lt;&gt; "", LEFT(D68,1) &amp; ".","")</f>
         <v>Зарембо С. Ф.</v>
       </c>
       <c r="G68" s="1" t="s">
@@ -3666,12 +3700,12 @@
       <c r="D69" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E69" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Захаров Александр Андреевич</v>
+      <c r="E69" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B69:D69)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F69" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f>B69 &amp; " " &amp; LEFT(C69,1) &amp; ". " &amp; IF(LEFT(D69,1) &lt;&gt; "", LEFT(D69,1) &amp; ".","")</f>
         <v>Захаров А. А.</v>
       </c>
       <c r="G69" s="1" t="s">
@@ -3697,12 +3731,12 @@
       <c r="D70" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E70" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Змеев Максим Вадимович</v>
+      <c r="E70" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B70:D70)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F70" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f>B70 &amp; " " &amp; LEFT(C70,1) &amp; ". " &amp; IF(LEFT(D70,1) &lt;&gt; "", LEFT(D70,1) &amp; ".","")</f>
         <v>Змеев М. В.</v>
       </c>
       <c r="G70" s="1" t="s">
@@ -3728,12 +3762,12 @@
       <c r="D71" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E71" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Ивашин Алексей Леонидович</v>
+      <c r="E71" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B71:D71)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F71" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f>B71 &amp; " " &amp; LEFT(C71,1) &amp; ". " &amp; IF(LEFT(D71,1) &lt;&gt; "", LEFT(D71,1) &amp; ".","")</f>
         <v>Ивашин А. Л.</v>
       </c>
       <c r="G71" s="11" t="s">
@@ -3757,12 +3791,12 @@
       <c r="D72" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E72" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Калач Татьяна Станиславовна</v>
+      <c r="E72" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B72:D72)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F72" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f>B72 &amp; " " &amp; LEFT(C72,1) &amp; ". " &amp; IF(LEFT(D72,1) &lt;&gt; "", LEFT(D72,1) &amp; ".","")</f>
         <v>Калач Т. С.</v>
       </c>
       <c r="G72" s="1" t="s">
@@ -3788,12 +3822,12 @@
       <c r="D73" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E73" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Каркуп Виктор Анатольевич</v>
+      <c r="E73" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B73:D73)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F73" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f>B73 &amp; " " &amp; LEFT(C73,1) &amp; ". " &amp; IF(LEFT(D73,1) &lt;&gt; "", LEFT(D73,1) &amp; ".","")</f>
         <v>Каркуп В. А.</v>
       </c>
       <c r="G73" s="1" t="s">
@@ -3819,12 +3853,12 @@
       <c r="D74" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E74" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Киреева Елена Алексеевна</v>
+      <c r="E74" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B74:D74)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F74" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f>B74 &amp; " " &amp; LEFT(C74,1) &amp; ". " &amp; IF(LEFT(D74,1) &lt;&gt; "", LEFT(D74,1) &amp; ".","")</f>
         <v>Киреева Е. А.</v>
       </c>
       <c r="G74" s="1" t="s">
@@ -3850,12 +3884,12 @@
       <c r="D75" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E75" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Клецко Юрий Алексеевич</v>
+      <c r="E75" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B75:D75)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F75" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f>B75 &amp; " " &amp; LEFT(C75,1) &amp; ". " &amp; IF(LEFT(D75,1) &lt;&gt; "", LEFT(D75,1) &amp; ".","")</f>
         <v>Клецко Ю. А.</v>
       </c>
       <c r="G75" s="11" t="s">
@@ -3879,12 +3913,12 @@
       <c r="D76" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E76" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Клименков Виталий Сергеевич</v>
+      <c r="E76" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B76:D76)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F76" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f>B76 &amp; " " &amp; LEFT(C76,1) &amp; ". " &amp; IF(LEFT(D76,1) &lt;&gt; "", LEFT(D76,1) &amp; ".","")</f>
         <v>Клименков В. С.</v>
       </c>
       <c r="G76" s="1" t="s">
@@ -3908,12 +3942,12 @@
       <c r="D77" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E77" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Климкович Валентина Леонидовна</v>
+      <c r="E77" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B77:D77)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F77" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f>B77 &amp; " " &amp; LEFT(C77,1) &amp; ". " &amp; IF(LEFT(D77,1) &lt;&gt; "", LEFT(D77,1) &amp; ".","")</f>
         <v>Климкович В. Л.</v>
       </c>
       <c r="G77" s="1" t="s">
@@ -3939,12 +3973,12 @@
       <c r="D78" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E78" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Клочко Сергей Валерьевич</v>
+      <c r="E78" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B78:D78)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F78" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f>B78 &amp; " " &amp; LEFT(C78,1) &amp; ". " &amp; IF(LEFT(D78,1) &lt;&gt; "", LEFT(D78,1) &amp; ".","")</f>
         <v>Клочко С. В.</v>
       </c>
       <c r="G78" s="1" t="s">
@@ -3970,12 +4004,12 @@
       <c r="D79" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E79" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Коваленок Владимир Александрович</v>
+      <c r="E79" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B79:D79)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F79" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f>B79 &amp; " " &amp; LEFT(C79,1) &amp; ". " &amp; IF(LEFT(D79,1) &lt;&gt; "", LEFT(D79,1) &amp; ".","")</f>
         <v>Коваленок В. А.</v>
       </c>
       <c r="G79" s="1" t="s">
@@ -4001,12 +4035,12 @@
       <c r="D80" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E80" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Козловский Юрий Викторович</v>
+      <c r="E80" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B80:D80)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F80" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f>B80 &amp; " " &amp; LEFT(C80,1) &amp; ". " &amp; IF(LEFT(D80,1) &lt;&gt; "", LEFT(D80,1) &amp; ".","")</f>
         <v>Козловский Ю. В.</v>
       </c>
       <c r="G80" s="1" t="s">
@@ -4030,12 +4064,12 @@
       <c r="D81" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E81" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Козырицкая Наталья Евгеньевна</v>
+      <c r="E81" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B81:D81)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F81" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f>B81 &amp; " " &amp; LEFT(C81,1) &amp; ". " &amp; IF(LEFT(D81,1) &lt;&gt; "", LEFT(D81,1) &amp; ".","")</f>
         <v>Козырицкая Н. Е.</v>
       </c>
       <c r="G81" s="1" t="s">
@@ -4061,12 +4095,12 @@
       <c r="D82" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E82" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Колесень Жанна Анатольевна</v>
+      <c r="E82" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B82:D82)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F82" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f>B82 &amp; " " &amp; LEFT(C82,1) &amp; ". " &amp; IF(LEFT(D82,1) &lt;&gt; "", LEFT(D82,1) &amp; ".","")</f>
         <v>Колесень Ж. А.</v>
       </c>
       <c r="G82" s="1" t="s">
@@ -4090,12 +4124,12 @@
       <c r="D83" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E83" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Колесова Светлана Владимировна</v>
+      <c r="E83" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B83:D83)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F83" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f>B83 &amp; " " &amp; LEFT(C83,1) &amp; ". " &amp; IF(LEFT(D83,1) &lt;&gt; "", LEFT(D83,1) &amp; ".","")</f>
         <v>Колесова С. В.</v>
       </c>
       <c r="G83" s="11" t="s">
@@ -4119,12 +4153,12 @@
       <c r="D84" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E84" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Кончаленко Ирина Игоревна</v>
+      <c r="E84" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B84:D84)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F84" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f>B84 &amp; " " &amp; LEFT(C84,1) &amp; ". " &amp; IF(LEFT(D84,1) &lt;&gt; "", LEFT(D84,1) &amp; ".","")</f>
         <v>Кончаленко И. И.</v>
       </c>
       <c r="G84" s="1" t="s">
@@ -4150,12 +4184,12 @@
       <c r="D85" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E85" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Конюшенко Светлана Иосифовна</v>
+      <c r="E85" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B85:D85)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F85" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f>B85 &amp; " " &amp; LEFT(C85,1) &amp; ". " &amp; IF(LEFT(D85,1) &lt;&gt; "", LEFT(D85,1) &amp; ".","")</f>
         <v>Конюшенко С. И.</v>
       </c>
       <c r="G85" s="1" t="s">
@@ -4181,12 +4215,12 @@
       <c r="D86" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E86" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Королева Виктория Викторовна</v>
+      <c r="E86" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B86:D86)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F86" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f>B86 &amp; " " &amp; LEFT(C86,1) &amp; ". " &amp; IF(LEFT(D86,1) &lt;&gt; "", LEFT(D86,1) &amp; ".","")</f>
         <v>Королева В. В.</v>
       </c>
       <c r="G86" s="1" t="s">
@@ -4212,12 +4246,12 @@
       <c r="D87" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E87" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Кривицкий Александр Викторович</v>
+      <c r="E87" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B87:D87)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F87" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f>B87 &amp; " " &amp; LEFT(C87,1) &amp; ". " &amp; IF(LEFT(D87,1) &lt;&gt; "", LEFT(D87,1) &amp; ".","")</f>
         <v>Кривицкий А. В.</v>
       </c>
       <c r="G87" s="1" t="s">
@@ -4243,12 +4277,12 @@
       <c r="D88" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E88" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Кривкин Виталий Николаевич</v>
+      <c r="E88" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B88:D88)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F88" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f>B88 &amp; " " &amp; LEFT(C88,1) &amp; ". " &amp; IF(LEFT(D88,1) &lt;&gt; "", LEFT(D88,1) &amp; ".","")</f>
         <v>Кривкин В. Н.</v>
       </c>
       <c r="G88" s="1" t="s">
@@ -4274,12 +4308,12 @@
       <c r="D89" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E89" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Кручковский Денис Сергеевич</v>
+      <c r="E89" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B89:D89)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F89" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f>B89 &amp; " " &amp; LEFT(C89,1) &amp; ". " &amp; IF(LEFT(D89,1) &lt;&gt; "", LEFT(D89,1) &amp; ".","")</f>
         <v>Кручковский Д. С.</v>
       </c>
       <c r="G89" s="1" t="s">
@@ -4293,147 +4327,140 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E90" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Кульгавый Анатолий Валентинович</v>
-      </c>
-      <c r="F90" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>Кульгавый А. В.</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H90" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I90" s="3">
-        <v>43276</v>
-      </c>
+      <c r="A90" s="13"/>
+      <c r="B90" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21" t="str">
+        <f>B90 &amp; " " &amp; LEFT(C90,1) &amp; ". " &amp; IF(LEFT(D90,1) &lt;&gt; "", LEFT(D90,1) &amp; ".","")</f>
+        <v>Кулик Е. Г.</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="H90" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="I90" s="11"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E91" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B91:D91)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F91" s="19" t="str">
+        <f>B91 &amp; " " &amp; LEFT(C91,1) &amp; ". " &amp; IF(LEFT(D91,1) &lt;&gt; "", LEFT(D91,1) &amp; ".","")</f>
+        <v>Кульгавый А. В.</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I91" s="3">
+        <v>43276</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E91" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Кулютникова Ирина Евгеньевна</v>
-      </c>
-      <c r="F91" s="19" t="str">
-        <f t="shared" si="3"/>
+      <c r="E92" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B92:D92)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F92" s="19" t="str">
+        <f>B92 &amp; " " &amp; LEFT(C92,1) &amp; ". " &amp; IF(LEFT(D92,1) &lt;&gt; "", LEFT(D92,1) &amp; ".","")</f>
         <v>Кулютникова И. Е.</v>
       </c>
-      <c r="G91" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H91" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="G92" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I92" s="3">
         <v>34314</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="6">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="6">
         <v>31283</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E92" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Курган Сергей Михайлович</v>
-      </c>
-      <c r="F92" s="19" t="str">
-        <f t="shared" si="3"/>
+      <c r="E93" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B93:D93)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F93" s="19" t="str">
+        <f>B93 &amp; " " &amp; LEFT(C93,1) &amp; ". " &amp; IF(LEFT(D93,1) &lt;&gt; "", LEFT(D93,1) &amp; ".","")</f>
         <v>Курган С. М.</v>
       </c>
-      <c r="G92" s="11" t="s">
+      <c r="G93" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="H92" s="5" t="s">
+      <c r="H93" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E93" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Лавров Игорь Владимирович</v>
-      </c>
-      <c r="F93" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>Лавров И. В.</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H93" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I93" s="3">
-        <v>39481</v>
-      </c>
+      <c r="I93" s="1"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>271</v>
+        <v>101</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E94" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Лазько Юлия Геннадьевна</v>
+        <v>44</v>
+      </c>
+      <c r="E94" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B94:D94)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F94" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>Лазько Ю. Г.</v>
+        <f>B94 &amp; " " &amp; LEFT(C94,1) &amp; ". " &amp; IF(LEFT(D94,1) &lt;&gt; "", LEFT(D94,1) &amp; ".","")</f>
+        <v>Лавров И. В.</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>24</v>
@@ -4442,7 +4469,7 @@
         <v>24</v>
       </c>
       <c r="I94" s="3">
-        <v>43076</v>
+        <v>39481</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -4450,21 +4477,21 @@
         <v>24</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E95" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Лапинский Андрей Леонидович</v>
+        <v>18</v>
+      </c>
+      <c r="E95" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B95:D95)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F95" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>Лапинский А. Л.</v>
+        <f>B95 &amp; " " &amp; LEFT(C95,1) &amp; ". " &amp; IF(LEFT(D95,1) &lt;&gt; "", LEFT(D95,1) &amp; ".","")</f>
+        <v>Лазько Ю. Г.</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>24</v>
@@ -4473,7 +4500,7 @@
         <v>24</v>
       </c>
       <c r="I95" s="3">
-        <v>43235</v>
+        <v>43076</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -4481,21 +4508,21 @@
         <v>24</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>95</v>
+        <v>263</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E96" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Левковский Александр Владимирович</v>
+        <v>59</v>
+      </c>
+      <c r="E96" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B96:D96)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F96" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>Левковский А. В.</v>
+        <f>B96 &amp; " " &amp; LEFT(C96,1) &amp; ". " &amp; IF(LEFT(D96,1) &lt;&gt; "", LEFT(D96,1) &amp; ".","")</f>
+        <v>Лапинский А. Л.</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>24</v>
@@ -4504,7 +4531,7 @@
         <v>24</v>
       </c>
       <c r="I96" s="3">
-        <v>43383</v>
+        <v>43235</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -4512,7 +4539,7 @@
         <v>24</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>95</v>
@@ -4520,13 +4547,13 @@
       <c r="D97" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E97" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Лобанов Александр Владимирович</v>
+      <c r="E97" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B97:D97)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F97" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>Лобанов А. В.</v>
+        <f>B97 &amp; " " &amp; LEFT(C97,1) &amp; ". " &amp; IF(LEFT(D97,1) &lt;&gt; "", LEFT(D97,1) &amp; ".","")</f>
+        <v>Левковский А. В.</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>24</v>
@@ -4535,7 +4562,7 @@
         <v>24</v>
       </c>
       <c r="I97" s="3">
-        <v>38574</v>
+        <v>43383</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -4543,21 +4570,21 @@
         <v>24</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E98" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Лобач Анатолий Антонович</v>
+        <v>44</v>
+      </c>
+      <c r="E98" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B98:D98)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F98" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>Лобач А. А.</v>
+        <f>B98 &amp; " " &amp; LEFT(C98,1) &amp; ". " &amp; IF(LEFT(D98,1) &lt;&gt; "", LEFT(D98,1) &amp; ".","")</f>
+        <v>Лобанов А. В.</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>24</v>
@@ -4566,7 +4593,7 @@
         <v>24</v>
       </c>
       <c r="I98" s="3">
-        <v>27833</v>
+        <v>38574</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -4574,21 +4601,21 @@
         <v>24</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E99" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Лушникова Ирина Александровна</v>
+        <v>204</v>
+      </c>
+      <c r="E99" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B99:D99)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F99" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>Лушникова И. А.</v>
+        <f>B99 &amp; " " &amp; LEFT(C99,1) &amp; ". " &amp; IF(LEFT(D99,1) &lt;&gt; "", LEFT(D99,1) &amp; ".","")</f>
+        <v>Лобач А. А.</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>24</v>
@@ -4597,7 +4624,7 @@
         <v>24</v>
       </c>
       <c r="I99" s="3">
-        <v>43349</v>
+        <v>27833</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -4605,21 +4632,21 @@
         <v>24</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>260</v>
+        <v>115</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E100" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Лычиц Людмила Анатольевна</v>
+        <v>6</v>
+      </c>
+      <c r="E100" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B100:D100)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F100" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>Лычиц Л. А.</v>
+        <f>B100 &amp; " " &amp; LEFT(C100,1) &amp; ". " &amp; IF(LEFT(D100,1) &lt;&gt; "", LEFT(D100,1) &amp; ".","")</f>
+        <v>Лушникова И. А.</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>24</v>
@@ -4628,7 +4655,7 @@
         <v>24</v>
       </c>
       <c r="I100" s="3">
-        <v>41836</v>
+        <v>43349</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -4636,21 +4663,21 @@
         <v>24</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E101" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Малиновский Сергей Михайлович</v>
+        <v>16</v>
+      </c>
+      <c r="E101" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B101:D101)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F101" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>Малиновский С. М.</v>
+        <f>B101 &amp; " " &amp; LEFT(C101,1) &amp; ". " &amp; IF(LEFT(D101,1) &lt;&gt; "", LEFT(D101,1) &amp; ".","")</f>
+        <v>Лычиц Л. А.</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>24</v>
@@ -4659,7 +4686,7 @@
         <v>24</v>
       </c>
       <c r="I101" s="3">
-        <v>42782</v>
+        <v>41836</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -4667,21 +4694,21 @@
         <v>24</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E102" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Маречко Владимир Михайлович</v>
+      <c r="E102" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B102:D102)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F102" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>Маречко В. М.</v>
+        <f>B102 &amp; " " &amp; LEFT(C102,1) &amp; ". " &amp; IF(LEFT(D102,1) &lt;&gt; "", LEFT(D102,1) &amp; ".","")</f>
+        <v>Малиновский С. М.</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>24</v>
@@ -4690,7 +4717,7 @@
         <v>24</v>
       </c>
       <c r="I102" s="3">
-        <v>43138</v>
+        <v>42782</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -4698,92 +4725,92 @@
         <v>24</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E103" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Масловсикй Петр Михайлович</v>
+      <c r="E103" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B103:D103)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F103" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f>B103 &amp; " " &amp; LEFT(C103,1) &amp; ". " &amp; IF(LEFT(D103,1) &lt;&gt; "", LEFT(D103,1) &amp; ".","")</f>
+        <v>Маречко В. М.</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I103" s="3">
+        <v>43138</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E104" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B104:D104)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F104" s="19" t="str">
+        <f>B104 &amp; " " &amp; LEFT(C104,1) &amp; ". " &amp; IF(LEFT(D104,1) &lt;&gt; "", LEFT(D104,1) &amp; ".","")</f>
         <v>Масловсикй П. М.</v>
       </c>
-      <c r="G103" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H103" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I103" s="3">
+      <c r="G104" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I104" s="3">
         <v>33530</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="13">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="13">
         <v>27634</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E104" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Масловский Сергей Петрович</v>
-      </c>
-      <c r="F104" s="19" t="str">
-        <f t="shared" si="3"/>
+      <c r="E105" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B105:D105)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F105" s="19" t="str">
+        <f>B105 &amp; " " &amp; LEFT(C105,1) &amp; ". " &amp; IF(LEFT(D105,1) &lt;&gt; "", LEFT(D105,1) &amp; ".","")</f>
         <v>Масловский С. П.</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="G105" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="H104" s="5" t="s">
+      <c r="H105" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="I104" s="3">
+      <c r="I105" s="3">
         <v>33718</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E105" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Мацкевич Андрей Эдуардович</v>
-      </c>
-      <c r="F105" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>Мацкевич А. Э.</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H105" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I105" s="3">
-        <v>42060</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -4791,21 +4818,21 @@
         <v>24</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E106" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Мельник Елена Леонидовна</v>
+        <v>51</v>
+      </c>
+      <c r="E106" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B106:D106)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F106" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>Мельник Е. Л.</v>
+        <f>B106 &amp; " " &amp; LEFT(C106,1) &amp; ". " &amp; IF(LEFT(D106,1) &lt;&gt; "", LEFT(D106,1) &amp; ".","")</f>
+        <v>Мацкевич А. Э.</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>24</v>
@@ -4814,7 +4841,7 @@
         <v>24</v>
       </c>
       <c r="I106" s="3">
-        <v>39737</v>
+        <v>42060</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -4822,21 +4849,21 @@
         <v>24</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E107" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Мельников Иван Иванович</v>
+        <v>125</v>
+      </c>
+      <c r="E107" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B107:D107)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F107" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>Мельников И. И.</v>
+        <f>B107 &amp; " " &amp; LEFT(C107,1) &amp; ". " &amp; IF(LEFT(D107,1) &lt;&gt; "", LEFT(D107,1) &amp; ".","")</f>
+        <v>Мельник Е. Л.</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>24</v>
@@ -4845,7 +4872,7 @@
         <v>24</v>
       </c>
       <c r="I107" s="3">
-        <v>43023</v>
+        <v>39737</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -4853,449 +4880,449 @@
         <v>24</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E108" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B108:D108)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F108" s="19" t="str">
+        <f>B108 &amp; " " &amp; LEFT(C108,1) &amp; ". " &amp; IF(LEFT(D108,1) &lt;&gt; "", LEFT(D108,1) &amp; ".","")</f>
+        <v>Мельников И. И.</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I108" s="3">
+        <v>43023</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E108" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Минич Викторяи Александровна</v>
-      </c>
-      <c r="F108" s="19" t="str">
-        <f t="shared" si="3"/>
+      <c r="E109" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B109:D109)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F109" s="19" t="str">
+        <f>B109 &amp; " " &amp; LEFT(C109,1) &amp; ". " &amp; IF(LEFT(D109,1) &lt;&gt; "", LEFT(D109,1) &amp; ".","")</f>
         <v>Минич В. А.</v>
       </c>
-      <c r="G108" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H108" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I108" s="3">
+      <c r="G109" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I109" s="3">
         <v>41206</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="13">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="13">
         <v>30724</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E109" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Михайленко Олег Леонидович</v>
-      </c>
-      <c r="F109" s="19" t="str">
-        <f t="shared" si="3"/>
+      <c r="E110" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B110:D110)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F110" s="19" t="str">
+        <f>B110 &amp; " " &amp; LEFT(C110,1) &amp; ". " &amp; IF(LEFT(D110,1) &lt;&gt; "", LEFT(D110,1) &amp; ".","")</f>
         <v>Михайленко О. Л.</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="G110" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="H109" s="5" t="s">
+      <c r="H110" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="I109" s="3">
+      <c r="I110" s="3">
         <v>42552</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" s="6">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="6">
         <v>31241</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E110" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Михаленок Владимир Николаевич</v>
-      </c>
-      <c r="F110" s="19" t="str">
-        <f t="shared" si="3"/>
+      <c r="E111" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B111:D111)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F111" s="19" t="str">
+        <f>B111 &amp; " " &amp; LEFT(C111,1) &amp; ". " &amp; IF(LEFT(D111,1) &lt;&gt; "", LEFT(D111,1) &amp; ".","")</f>
         <v>Михаленок В. Н.</v>
       </c>
-      <c r="G110" s="11" t="s">
+      <c r="G111" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="H110" s="5" t="s">
+      <c r="H111" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B111" s="1" t="s">
+      <c r="I111" s="1"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E111" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Мостовский Юрий Романович</v>
-      </c>
-      <c r="F111" s="19" t="str">
-        <f t="shared" si="3"/>
+      <c r="E112" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B112:D112)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F112" s="19" t="str">
+        <f>B112 &amp; " " &amp; LEFT(C112,1) &amp; ". " &amp; IF(LEFT(D112,1) &lt;&gt; "", LEFT(D112,1) &amp; ".","")</f>
         <v>Мостовский Ю. Р.</v>
       </c>
-      <c r="G111" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H111" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I111" s="3">
+      <c r="G112" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I112" s="3">
         <v>42165</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" s="13">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="13">
         <v>29939</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E112" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Мурашко Владимир Владимирович</v>
-      </c>
-      <c r="F112" s="19" t="str">
-        <f t="shared" si="3"/>
+      <c r="E113" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B113:D113)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F113" s="19" t="str">
+        <f>B113 &amp; " " &amp; LEFT(C113,1) &amp; ". " &amp; IF(LEFT(D113,1) &lt;&gt; "", LEFT(D113,1) &amp; ".","")</f>
         <v>Мурашко В. В.</v>
       </c>
-      <c r="G112" s="1" t="s">
+      <c r="G113" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="H112" s="5" t="s">
+      <c r="H113" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="I112" s="3">
+      <c r="I113" s="3">
         <v>41829</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" s="6">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="6">
         <v>28568</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D114" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E113" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Нагаев Радий Александрович</v>
-      </c>
-      <c r="F113" s="19" t="str">
-        <f t="shared" si="3"/>
+      <c r="E114" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B114:D114)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F114" s="19" t="str">
+        <f>B114 &amp; " " &amp; LEFT(C114,1) &amp; ". " &amp; IF(LEFT(D114,1) &lt;&gt; "", LEFT(D114,1) &amp; ".","")</f>
         <v>Нагаев Р. А.</v>
       </c>
-      <c r="G113" s="11" t="s">
+      <c r="G114" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="H113" s="5" t="s">
+      <c r="H114" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="I113" s="9"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" s="13">
+      <c r="I114" s="9"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="13">
         <v>30546</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E114" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Новик Александр Михайлович</v>
-      </c>
-      <c r="F114" s="19" t="str">
-        <f t="shared" si="3"/>
+      <c r="E115" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B115:D115)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F115" s="19" t="str">
+        <f>B115 &amp; " " &amp; LEFT(C115,1) &amp; ". " &amp; IF(LEFT(D115,1) &lt;&gt; "", LEFT(D115,1) &amp; ".","")</f>
         <v>Новик А. М.</v>
       </c>
-      <c r="G114" s="1" t="s">
+      <c r="G115" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="H114" s="5" t="s">
+      <c r="H115" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="I114" s="3">
+      <c r="I115" s="3">
         <v>42441</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B115" s="1" t="s">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E115" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Олешко Татьяна Владимировна</v>
-      </c>
-      <c r="F115" s="19" t="str">
-        <f t="shared" si="3"/>
+      <c r="E116" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B116:D116)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F116" s="19" t="str">
+        <f>B116 &amp; " " &amp; LEFT(C116,1) &amp; ". " &amp; IF(LEFT(D116,1) &lt;&gt; "", LEFT(D116,1) &amp; ".","")</f>
         <v>Олешко Т. В.</v>
       </c>
-      <c r="G115" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H115" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I115" s="3">
+      <c r="G116" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I116" s="3">
         <v>38084</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116" s="13">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="13">
         <v>24030</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C117" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D117" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E116" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Осокин Иван Александрович</v>
-      </c>
-      <c r="F116" s="19" t="str">
-        <f t="shared" si="3"/>
+      <c r="E117" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B117:D117)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F117" s="19" t="str">
+        <f>B117 &amp; " " &amp; LEFT(C117,1) &amp; ". " &amp; IF(LEFT(D117,1) &lt;&gt; "", LEFT(D117,1) &amp; ".","")</f>
         <v>Осокин И. А.</v>
       </c>
-      <c r="G116" s="1" t="s">
+      <c r="G117" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="H116" s="5" t="s">
+      <c r="H117" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="I116" s="3">
+      <c r="I117" s="3">
         <v>32594</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B117" s="1" t="s">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E117" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Павлов Игорь Борисович</v>
-      </c>
-      <c r="F117" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>Павлов И. Б.</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H117" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I117" s="3">
-        <v>39261</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118" s="13">
-        <v>26361</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>101</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E118" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Павлович Игорь Брониславович</v>
+        <v>218</v>
+      </c>
+      <c r="E118" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B118:D118)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F118" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>Павлович И. Б.</v>
+        <f>B118 &amp; " " &amp; LEFT(C118,1) &amp; ". " &amp; IF(LEFT(D118,1) &lt;&gt; "", LEFT(D118,1) &amp; ".","")</f>
+        <v>Павлов И. Б.</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>280</v>
+        <v>24</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>312</v>
+        <v>24</v>
       </c>
       <c r="I118" s="3">
-        <v>35483</v>
+        <v>39261</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="13">
-        <v>30960</v>
+        <v>26361</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E119" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Пархоменко Иван Григорьевич</v>
+        <v>49</v>
+      </c>
+      <c r="E119" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B119:D119)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F119" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>Пархоменко И. Г.</v>
+        <f>B119 &amp; " " &amp; LEFT(C119,1) &amp; ". " &amp; IF(LEFT(D119,1) &lt;&gt; "", LEFT(D119,1) &amp; ".","")</f>
+        <v>Павлович И. Б.</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>280</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I119" s="3">
-        <v>42958</v>
+        <v>35483</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="13">
+        <v>30960</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E120" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B120:D120)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F120" s="19" t="str">
+        <f>B120 &amp; " " &amp; LEFT(C120,1) &amp; ". " &amp; IF(LEFT(D120,1) &lt;&gt; "", LEFT(D120,1) &amp; ".","")</f>
+        <v>Пархоменко И. Г.</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="I120" s="3">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="13">
         <v>25704</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C121" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D121" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E120" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Пархомчик Дмитрий Леонидович</v>
-      </c>
-      <c r="F120" s="19" t="str">
-        <f t="shared" si="3"/>
+      <c r="E121" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B121:D121)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F121" s="19" t="str">
+        <f>B121 &amp; " " &amp; LEFT(C121,1) &amp; ". " &amp; IF(LEFT(D121,1) &lt;&gt; "", LEFT(D121,1) &amp; ".","")</f>
         <v>Пархомчик Д. Л.</v>
       </c>
-      <c r="G120" s="11" t="s">
+      <c r="G121" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="H120" s="16" t="s">
+      <c r="H121" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="I120" s="11"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A121" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E121" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Первененок Денис Семенович</v>
-      </c>
-      <c r="F121" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>Первененок Д. С.</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H121" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I121" s="3">
-        <v>42495</v>
-      </c>
+      <c r="I121" s="11"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>114</v>
+        <v>256</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E122" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Переводчикова Светлана Николаевна</v>
+        <v>91</v>
+      </c>
+      <c r="E122" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B122:D122)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F122" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>Переводчикова С. Н.</v>
+        <f>B122 &amp; " " &amp; LEFT(C122,1) &amp; ". " &amp; IF(LEFT(D122,1) &lt;&gt; "", LEFT(D122,1) &amp; ".","")</f>
+        <v>Первененок Д. С.</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>24</v>
@@ -5304,7 +5331,7 @@
         <v>24</v>
       </c>
       <c r="I122" s="3">
-        <v>40128</v>
+        <v>42495</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
@@ -5312,64 +5339,66 @@
         <v>24</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E123" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B123:D123)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F123" s="19" t="str">
+        <f>B123 &amp; " " &amp; LEFT(C123,1) &amp; ". " &amp; IF(LEFT(D123,1) &lt;&gt; "", LEFT(D123,1) &amp; ".","")</f>
+        <v>Переводчикова С. Н.</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I123" s="3">
+        <v>40128</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E123" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Песняк Сергей Владимирович</v>
-      </c>
-      <c r="F123" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>Песняк С. В.</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H123" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I123" s="3">
-        <v>42342</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A124" s="6">
-        <v>20620</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E124" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Петрович Сергей Семенович</v>
+        <v>44</v>
+      </c>
+      <c r="E124" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B124:D124)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F124" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>Петрович С. С.</v>
-      </c>
-      <c r="G124" s="11" t="s">
-        <v>280</v>
+        <f>B124 &amp; " " &amp; LEFT(C124,1) &amp; ". " &amp; IF(LEFT(D124,1) &lt;&gt; "", LEFT(D124,1) &amp; ".","")</f>
+        <v>Песняк С. В.</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="I124" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="I124" s="3">
+        <v>42342</v>
+      </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A125" s="13" t="s">
-        <v>24</v>
+      <c r="A125" s="6">
+        <v>20620</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>73</v>
@@ -5378,390 +5407,381 @@
         <v>100</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E125" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Петрович Сергей Семеновичи</v>
+        <v>91</v>
+      </c>
+      <c r="E125" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B125:D125)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F125" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f>B125 &amp; " " &amp; LEFT(C125,1) &amp; ". " &amp; IF(LEFT(D125,1) &lt;&gt; "", LEFT(D125,1) &amp; ".","")</f>
         <v>Петрович С. С.</v>
       </c>
-      <c r="G125" s="1" t="s">
-        <v>24</v>
+      <c r="G125" s="11" t="s">
+        <v>280</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I125" s="3">
-        <v>29465</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="I125" s="10"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E126" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B126:D126)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F126" s="19" t="str">
+        <f>B126 &amp; " " &amp; LEFT(C126,1) &amp; ". " &amp; IF(LEFT(D126,1) &lt;&gt; "", LEFT(D126,1) &amp; ".","")</f>
+        <v>Петрович С. С.</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I126" s="3">
+        <v>29465</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D127" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E126" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Пешкур Диана Викторовна</v>
-      </c>
-      <c r="F126" s="19" t="str">
-        <f t="shared" si="3"/>
+      <c r="E127" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B127:D127)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F127" s="19" t="str">
+        <f>B127 &amp; " " &amp; LEFT(C127,1) &amp; ". " &amp; IF(LEFT(D127,1) &lt;&gt; "", LEFT(D127,1) &amp; ".","")</f>
         <v>Пешкур Д. В.</v>
       </c>
-      <c r="G126" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H126" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I126" s="3">
+      <c r="G127" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I127" s="3">
         <v>42614</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A127" s="13"/>
-      <c r="B127" s="1" t="s">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" s="13"/>
+      <c r="B128" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C128" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D128" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E127" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Пилипейко Елена Евгеньевна</v>
-      </c>
-      <c r="F127" s="19" t="str">
-        <f t="shared" si="3"/>
+      <c r="E128" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B128:D128)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F128" s="19" t="str">
+        <f>B128 &amp; " " &amp; LEFT(C128,1) &amp; ". " &amp; IF(LEFT(D128,1) &lt;&gt; "", LEFT(D128,1) &amp; ".","")</f>
         <v>Пилипейко Е. Е.</v>
       </c>
-      <c r="G127" s="1" t="s">
+      <c r="G128" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="H127" s="5" t="s">
+      <c r="H128" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="I127" s="3">
+      <c r="I128" s="3">
         <v>42139</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A128" s="6">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" s="6">
         <v>31161</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B129" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C129" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D129" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E128" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Пилипенко Сергей Михайлович</v>
-      </c>
-      <c r="F128" s="19" t="str">
-        <f t="shared" si="3"/>
+      <c r="E129" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B129:D129)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F129" s="19" t="str">
+        <f>B129 &amp; " " &amp; LEFT(C129,1) &amp; ". " &amp; IF(LEFT(D129,1) &lt;&gt; "", LEFT(D129,1) &amp; ".","")</f>
         <v>Пилипенко С. М.</v>
       </c>
-      <c r="G128" s="11" t="s">
+      <c r="G129" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="H128" s="5" t="s">
+      <c r="H129" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="I128" s="10"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A129" s="13">
+      <c r="I129" s="10"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" s="13">
         <v>31127</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B130" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C130" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D130" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E129" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Погорелов Петр Леонидович</v>
-      </c>
-      <c r="F129" s="19" t="str">
-        <f t="shared" si="3"/>
+      <c r="E130" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B130:D130)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F130" s="19" t="str">
+        <f>B130 &amp; " " &amp; LEFT(C130,1) &amp; ". " &amp; IF(LEFT(D130,1) &lt;&gt; "", LEFT(D130,1) &amp; ".","")</f>
         <v>Погорелов П. Л.</v>
       </c>
-      <c r="G129" s="1" t="s">
+      <c r="G130" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="H129" s="5" t="s">
+      <c r="H130" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="I129" s="3">
+      <c r="I130" s="3">
         <v>43285</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A130" s="13"/>
-      <c r="B130" s="1" t="s">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131" s="13"/>
+      <c r="B131" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C131" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E130" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Подоба Елена Геннадьевна</v>
-      </c>
-      <c r="F130" s="19" t="str">
-        <f t="shared" si="3"/>
+      <c r="E131" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B131:D131)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F131" s="19" t="str">
+        <f>B131 &amp; " " &amp; LEFT(C131,1) &amp; ". " &amp; IF(LEFT(D131,1) &lt;&gt; "", LEFT(D131,1) &amp; ".","")</f>
         <v>Подоба Е. Г.</v>
       </c>
-      <c r="G130" s="1" t="s">
+      <c r="G131" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="H130" s="5" t="s">
+      <c r="H131" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="I130" s="3">
+      <c r="I131" s="3">
         <v>42410</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A131" s="13">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" s="13"/>
+      <c r="B132" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="E132" s="21"/>
+      <c r="F132" s="21" t="str">
+        <f>B132 &amp; " " &amp; LEFT(C132,1) &amp; ". " &amp; IF(LEFT(D132,1) &lt;&gt; "", LEFT(D132,1) &amp; ".","")</f>
+        <v>Протасеня Д. А.</v>
+      </c>
+      <c r="G132" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="H132" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="I132" s="11"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133" s="13">
         <v>30510</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E131" s="19" t="str">
-        <f t="shared" ref="E131:E188" si="4">_xlfn.TEXTJOIN(" ",FALSE,B131:D131)</f>
-        <v>Протько Виктор Алексеевич</v>
-      </c>
-      <c r="F131" s="19" t="str">
-        <f t="shared" ref="F131:F188" si="5">B131 &amp; " " &amp; LEFT(C131,1) &amp; ". " &amp; IF(LEFT(D131,1) &lt;&gt; "", LEFT(D131,1) &amp; ".","")</f>
+      <c r="E133" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B133:D133)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F133" s="19" t="str">
+        <f>B133 &amp; " " &amp; LEFT(C133,1) &amp; ". " &amp; IF(LEFT(D133,1) &lt;&gt; "", LEFT(D133,1) &amp; ".","")</f>
         <v>Протько В. А.</v>
       </c>
-      <c r="G131" s="1" t="s">
+      <c r="G133" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="H131" s="5" t="s">
+      <c r="H133" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="I131" s="3">
+      <c r="I133" s="3">
         <v>42430</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A132" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B132" s="1" t="s">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C134" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D134" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E132" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Пуденков Виктор Анатольевич</v>
-      </c>
-      <c r="F132" s="19" t="str">
-        <f t="shared" si="5"/>
+      <c r="E134" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B134:D134)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F134" s="19" t="str">
+        <f>B134 &amp; " " &amp; LEFT(C134,1) &amp; ". " &amp; IF(LEFT(D134,1) &lt;&gt; "", LEFT(D134,1) &amp; ".","")</f>
         <v>Пуденков В. А.</v>
       </c>
-      <c r="G132" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H132" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I132" s="3">
+      <c r="G134" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I134" s="3">
         <v>39035</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A133" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B133" s="1" t="s">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C135" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D135" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E133" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Пухляков Павел Васильевич</v>
-      </c>
-      <c r="F133" s="19" t="str">
-        <f t="shared" si="5"/>
+      <c r="E135" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B135:D135)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F135" s="19" t="str">
+        <f>B135 &amp; " " &amp; LEFT(C135,1) &amp; ". " &amp; IF(LEFT(D135,1) &lt;&gt; "", LEFT(D135,1) &amp; ".","")</f>
         <v>Пухляков П. В.</v>
       </c>
-      <c r="G133" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H133" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I133" s="3">
+      <c r="G135" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H135" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I135" s="3">
         <v>39499</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A134" s="13">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136" s="13">
         <v>27390</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B136" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C136" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D136" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E134" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Разумович Евгений Павлович</v>
-      </c>
-      <c r="F134" s="19" t="str">
-        <f t="shared" si="5"/>
+      <c r="E136" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B136:D136)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F136" s="19" t="str">
+        <f>B136 &amp; " " &amp; LEFT(C136,1) &amp; ". " &amp; IF(LEFT(D136,1) &lt;&gt; "", LEFT(D136,1) &amp; ".","")</f>
         <v>Разумович Е. П.</v>
       </c>
-      <c r="G134" s="1" t="s">
+      <c r="G136" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="H134" s="5" t="s">
+      <c r="H136" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="I134" s="3">
+      <c r="I136" s="3">
         <v>33817</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A135" s="13">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137" s="13">
         <v>26905</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B137" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C137" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D137" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E135" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Раманкевич Анатолий Николаевич</v>
-      </c>
-      <c r="F135" s="19" t="str">
-        <f t="shared" si="5"/>
+      <c r="E137" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B137:D137)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F137" s="19" t="str">
+        <f>B137 &amp; " " &amp; LEFT(C137,1) &amp; ". " &amp; IF(LEFT(D137,1) &lt;&gt; "", LEFT(D137,1) &amp; ".","")</f>
         <v>Раманкевич А. Н.</v>
       </c>
-      <c r="G135" s="1" t="s">
+      <c r="G137" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="H135" s="5" t="s">
+      <c r="H137" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="I135" s="3">
+      <c r="I137" s="3">
         <v>38058</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A136" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E136" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Рамша Ирина Леонидовна</v>
-      </c>
-      <c r="F136" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>Рамша И. Л.</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H136" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I136" s="3">
-        <v>42356</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A137" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E137" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Рамша Михаил Викторович</v>
-      </c>
-      <c r="F137" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>Рамша М. В.</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H137" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I137" s="3">
-        <v>42935</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
@@ -5769,21 +5789,21 @@
         <v>24</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E138" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Ришма Александр Константинович</v>
+        <v>125</v>
+      </c>
+      <c r="E138" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B138:D138)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F138" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>Ришма А. К.</v>
+        <f>B138 &amp; " " &amp; LEFT(C138,1) &amp; ". " &amp; IF(LEFT(D138,1) &lt;&gt; "", LEFT(D138,1) &amp; ".","")</f>
+        <v>Рамша И. Л.</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>24</v>
@@ -5792,7 +5812,7 @@
         <v>24</v>
       </c>
       <c r="I138" s="3">
-        <v>42507</v>
+        <v>42356</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
@@ -5800,21 +5820,21 @@
         <v>24</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>274</v>
+        <v>104</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E139" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Рудаковский Павел Сергеевич</v>
+        <v>43</v>
+      </c>
+      <c r="E139" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B139:D139)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F139" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>Рудаковский П. С.</v>
+        <f>B139 &amp; " " &amp; LEFT(C139,1) &amp; ". " &amp; IF(LEFT(D139,1) &lt;&gt; "", LEFT(D139,1) &amp; ".","")</f>
+        <v>Рамша М. В.</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>24</v>
@@ -5823,7 +5843,7 @@
         <v>24</v>
       </c>
       <c r="I139" s="3">
-        <v>42926</v>
+        <v>42935</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
@@ -5831,21 +5851,21 @@
         <v>24</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E140" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Сасункевич Оксана Анатольевна</v>
+        <v>228</v>
+      </c>
+      <c r="E140" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B140:D140)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F140" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>Сасункевич О. А.</v>
+        <f>B140 &amp; " " &amp; LEFT(C140,1) &amp; ". " &amp; IF(LEFT(D140,1) &lt;&gt; "", LEFT(D140,1) &amp; ".","")</f>
+        <v>Ришма А. К.</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>24</v>
@@ -5854,7 +5874,7 @@
         <v>24</v>
       </c>
       <c r="I140" s="3">
-        <v>43227</v>
+        <v>42507</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
@@ -5862,21 +5882,21 @@
         <v>24</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E141" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Сафрон Артур Николаевич</v>
+        <v>144</v>
+      </c>
+      <c r="E141" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B141:D141)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F141" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>Сафрон А. Н.</v>
+        <f>B141 &amp; " " &amp; LEFT(C141,1) &amp; ". " &amp; IF(LEFT(D141,1) &lt;&gt; "", LEFT(D141,1) &amp; ".","")</f>
+        <v>Рудаковский П. С.</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>24</v>
@@ -5885,7 +5905,7 @@
         <v>24</v>
       </c>
       <c r="I141" s="3">
-        <v>41867</v>
+        <v>42926</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
@@ -5893,21 +5913,21 @@
         <v>24</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>269</v>
+        <v>127</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E142" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Сафрон Виктория Владимировна</v>
+        <v>16</v>
+      </c>
+      <c r="E142" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B142:D142)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F142" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>Сафрон В. В.</v>
+        <f>B142 &amp; " " &amp; LEFT(C142,1) &amp; ". " &amp; IF(LEFT(D142,1) &lt;&gt; "", LEFT(D142,1) &amp; ".","")</f>
+        <v>Сасункевич О. А.</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>24</v>
@@ -5916,7 +5936,7 @@
         <v>24</v>
       </c>
       <c r="I142" s="3">
-        <v>41968</v>
+        <v>43227</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
@@ -5924,152 +5944,152 @@
         <v>24</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>275</v>
       </c>
       <c r="D143" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E143" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B143:D143)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F143" s="19" t="str">
+        <f>B143 &amp; " " &amp; LEFT(C143,1) &amp; ". " &amp; IF(LEFT(D143,1) &lt;&gt; "", LEFT(D143,1) &amp; ".","")</f>
+        <v>Сафрон А. Н.</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H143" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I143" s="3">
+        <v>41867</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E144" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B144:D144)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F144" s="19" t="str">
+        <f>B144 &amp; " " &amp; LEFT(C144,1) &amp; ". " &amp; IF(LEFT(D144,1) &lt;&gt; "", LEFT(D144,1) &amp; ".","")</f>
+        <v>Сафрон В. В.</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H144" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I144" s="3">
+        <v>41968</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E143" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Сахановский Артур Викторович</v>
-      </c>
-      <c r="F143" s="19" t="str">
-        <f t="shared" si="5"/>
+      <c r="E145" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B145:D145)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F145" s="19" t="str">
+        <f>B145 &amp; " " &amp; LEFT(C145,1) &amp; ". " &amp; IF(LEFT(D145,1) &lt;&gt; "", LEFT(D145,1) &amp; ".","")</f>
         <v>Сахановский А. В.</v>
       </c>
-      <c r="G143" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H143" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I143" s="3">
+      <c r="G145" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H145" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I145" s="3">
         <v>43118</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A144" s="13">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146" s="13">
         <v>31054</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B146" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C146" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E144" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Сацукевич Владислав Александрович</v>
-      </c>
-      <c r="F144" s="19" t="str">
-        <f t="shared" si="5"/>
+      <c r="E146" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B146:D146)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F146" s="19" t="str">
+        <f>B146 &amp; " " &amp; LEFT(C146,1) &amp; ". " &amp; IF(LEFT(D146,1) &lt;&gt; "", LEFT(D146,1) &amp; ".","")</f>
         <v>Сацукевич В. А.</v>
       </c>
-      <c r="G144" s="1" t="s">
+      <c r="G146" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="H144" s="5" t="s">
+      <c r="H146" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="I144" s="3">
+      <c r="I146" s="3">
         <v>43194</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A145" s="13"/>
-      <c r="B145" s="1" t="s">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147" s="13"/>
+      <c r="B147" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C147" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D147" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E145" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Севостьянова Наталья Николаевна</v>
-      </c>
-      <c r="F145" s="19" t="str">
-        <f t="shared" si="5"/>
+      <c r="E147" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B147:D147)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F147" s="19" t="str">
+        <f>B147 &amp; " " &amp; LEFT(C147,1) &amp; ". " &amp; IF(LEFT(D147,1) &lt;&gt; "", LEFT(D147,1) &amp; ".","")</f>
         <v>Севостьянова Н. Н.</v>
       </c>
-      <c r="G145" s="1" t="s">
+      <c r="G147" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="H145" s="5" t="s">
+      <c r="H147" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="I145" s="3">
+      <c r="I147" s="3">
         <v>42471</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A146" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E146" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Семашко Виктор Иванович</v>
-      </c>
-      <c r="F146" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>Семашко В. И.</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H146" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I146" s="3">
-        <v>42536</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A147" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E147" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Семенов Владимир Леонидович</v>
-      </c>
-      <c r="F147" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>Семенов В. Л.</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H147" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I147" s="3">
-        <v>42735</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
@@ -6077,21 +6097,21 @@
         <v>24</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E148" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Семеновых Александр Леонидович</v>
+        <v>54</v>
+      </c>
+      <c r="E148" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B148:D148)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F148" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>Семеновых А. Л.</v>
+        <f>B148 &amp; " " &amp; LEFT(C148,1) &amp; ". " &amp; IF(LEFT(D148,1) &lt;&gt; "", LEFT(D148,1) &amp; ".","")</f>
+        <v>Семашко В. И.</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>24</v>
@@ -6100,7 +6120,7 @@
         <v>24</v>
       </c>
       <c r="I148" s="3">
-        <v>43136</v>
+        <v>42536</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
@@ -6108,21 +6128,21 @@
         <v>24</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E149" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Сидорова Надежда Николаевна</v>
+        <v>59</v>
+      </c>
+      <c r="E149" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B149:D149)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F149" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>Сидорова Н. Н.</v>
+        <f>B149 &amp; " " &amp; LEFT(C149,1) &amp; ". " &amp; IF(LEFT(D149,1) &lt;&gt; "", LEFT(D149,1) &amp; ".","")</f>
+        <v>Семенов В. Л.</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>24</v>
@@ -6131,36 +6151,38 @@
         <v>24</v>
       </c>
       <c r="I149" s="3">
-        <v>43348</v>
+        <v>42735</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A150" s="13"/>
+      <c r="A150" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="B150" s="1" t="s">
-        <v>35</v>
+        <v>235</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E150" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Сидорович Анна Анатольевна</v>
+        <v>59</v>
+      </c>
+      <c r="E150" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B150:D150)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F150" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>Сидорович А. А.</v>
+        <f>B150 &amp; " " &amp; LEFT(C150,1) &amp; ". " &amp; IF(LEFT(D150,1) &lt;&gt; "", LEFT(D150,1) &amp; ".","")</f>
+        <v>Семеновых А. Л.</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>279</v>
+        <v>24</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>322</v>
+        <v>24</v>
       </c>
       <c r="I150" s="3">
-        <v>41458</v>
+        <v>43136</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
@@ -6168,92 +6190,90 @@
         <v>24</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E151" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B151:D151)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F151" s="19" t="str">
+        <f>B151 &amp; " " &amp; LEFT(C151,1) &amp; ". " &amp; IF(LEFT(D151,1) &lt;&gt; "", LEFT(D151,1) &amp; ".","")</f>
+        <v>Сидорова Н. Н.</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H151" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I151" s="3">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152" s="13"/>
+      <c r="B152" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E152" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B152:D152)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F152" s="19" t="str">
+        <f>B152 &amp; " " &amp; LEFT(C152,1) &amp; ". " &amp; IF(LEFT(D152,1) &lt;&gt; "", LEFT(D152,1) &amp; ".","")</f>
+        <v>Сидорович А. А.</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H152" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="I152" s="3">
+        <v>41458</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C153" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D153" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E151" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Силич Ольга Владимировна</v>
-      </c>
-      <c r="F151" s="19" t="str">
-        <f t="shared" si="5"/>
+      <c r="E153" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B153:D153)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F153" s="19" t="str">
+        <f>B153 &amp; " " &amp; LEFT(C153,1) &amp; ". " &amp; IF(LEFT(D153,1) &lt;&gt; "", LEFT(D153,1) &amp; ".","")</f>
         <v>Силич О. В.</v>
       </c>
-      <c r="G151" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H151" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I151" s="3">
+      <c r="G153" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H153" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I153" s="3">
         <v>40035</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A152" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E152" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Силич Татьяна Владимировна</v>
-      </c>
-      <c r="F152" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>Силич Т. В.</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H152" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I152" s="3">
-        <v>39273</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A153" s="13">
-        <v>24937</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E153" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Синяк Дмитрий Дмитриевич</v>
-      </c>
-      <c r="F153" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>Синяк Д. Д.</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="H153" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="I153" s="3">
-        <v>34437</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
@@ -6261,21 +6281,21 @@
         <v>24</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E154" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Сиротенко Сергей Юрьевич</v>
+        <v>20</v>
+      </c>
+      <c r="E154" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B154:D154)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F154" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>Сиротенко С. Ю.</v>
+        <f>B154 &amp; " " &amp; LEFT(C154,1) &amp; ". " &amp; IF(LEFT(D154,1) &lt;&gt; "", LEFT(D154,1) &amp; ".","")</f>
+        <v>Силич Т. В.</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>24</v>
@@ -6284,38 +6304,38 @@
         <v>24</v>
       </c>
       <c r="I154" s="3">
-        <v>41982</v>
+        <v>39273</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A155" s="13" t="s">
-        <v>24</v>
+      <c r="A155" s="13">
+        <v>24937</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>240</v>
+        <v>81</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E155" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Скрипачев Дмитрий Михайлович</v>
+        <v>82</v>
+      </c>
+      <c r="E155" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B155:D155)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F155" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>Скрипачев Д. М.</v>
+        <f>B155 &amp; " " &amp; LEFT(C155,1) &amp; ". " &amp; IF(LEFT(D155,1) &lt;&gt; "", LEFT(D155,1) &amp; ".","")</f>
+        <v>Синяк Д. Д.</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>24</v>
+        <v>280</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>24</v>
+        <v>323</v>
       </c>
       <c r="I155" s="3">
-        <v>42557</v>
+        <v>34437</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
@@ -6323,21 +6343,21 @@
         <v>24</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E156" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Сманцер Александр Григорьевич</v>
+        <v>239</v>
+      </c>
+      <c r="E156" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B156:D156)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F156" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>Сманцер А. Г.</v>
+        <f>B156 &amp; " " &amp; LEFT(C156,1) &amp; ". " &amp; IF(LEFT(D156,1) &lt;&gt; "", LEFT(D156,1) &amp; ".","")</f>
+        <v>Сиротенко С. Ю.</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>24</v>
@@ -6346,278 +6366,278 @@
         <v>24</v>
       </c>
       <c r="I156" s="3">
-        <v>42717</v>
+        <v>41982</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A157" s="6">
-        <v>27219</v>
+      <c r="A157" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>69</v>
+        <v>240</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E157" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Соловьев Петр Аркадьевич</v>
+        <v>46</v>
+      </c>
+      <c r="E157" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B157:D157)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F157" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>Соловьев П. А.</v>
-      </c>
-      <c r="G157" s="11" t="s">
-        <v>280</v>
+        <f>B157 &amp; " " &amp; LEFT(C157,1) &amp; ". " &amp; IF(LEFT(D157,1) &lt;&gt; "", LEFT(D157,1) &amp; ".","")</f>
+        <v>Скрипачев Д. М.</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="I157" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="I157" s="3">
+        <v>42557</v>
+      </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E158" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B158:D158)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F158" s="19" t="str">
+        <f>B158 &amp; " " &amp; LEFT(C158,1) &amp; ". " &amp; IF(LEFT(D158,1) &lt;&gt; "", LEFT(D158,1) &amp; ".","")</f>
+        <v>Сманцер А. Г.</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H158" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I158" s="3">
+        <v>42717</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159" s="6">
+        <v>27219</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="C159" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D158" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E158" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Соловьев Петр Аркадьевичи</v>
-      </c>
-      <c r="F158" s="19" t="str">
-        <f t="shared" si="5"/>
+      <c r="D159" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E159" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B159:D159)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F159" s="19" t="str">
+        <f>B159 &amp; " " &amp; LEFT(C159,1) &amp; ". " &amp; IF(LEFT(D159,1) &lt;&gt; "", LEFT(D159,1) &amp; ".","")</f>
         <v>Соловьев П. А.</v>
       </c>
-      <c r="G158" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H158" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I158" s="3">
-        <v>35660</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A159" s="6"/>
-      <c r="B159" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E159" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">Стасевич Алеся </v>
-      </c>
-      <c r="F159" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">Стасевич А. </v>
-      </c>
       <c r="G159" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="H159" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="I159" s="10"/>
+        <v>280</v>
+      </c>
+      <c r="H159" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="I159" s="1"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E160" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B160:D160)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F160" s="19" t="str">
+        <f>B160 &amp; " " &amp; LEFT(C160,1) &amp; ". " &amp; IF(LEFT(D160,1) &lt;&gt; "", LEFT(D160,1) &amp; ".","")</f>
+        <v>Соловьев П. А.</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H160" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I160" s="3">
+        <v>35660</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A161" s="6"/>
+      <c r="B161" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C161" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E161" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B161:D161)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F161" s="19" t="str">
+        <f>B161 &amp; " " &amp; LEFT(C161,1) &amp; ". " &amp; IF(LEFT(D161,1) &lt;&gt; "", LEFT(D161,1) &amp; ".","")</f>
+        <v xml:space="preserve">Стасевич А. </v>
+      </c>
+      <c r="G161" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="H161" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="I161" s="10"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A162" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="D162" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E160" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Стасевич Анастасия Леонидовна</v>
-      </c>
-      <c r="F160" s="19" t="str">
-        <f t="shared" si="5"/>
+      <c r="E162" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B162:D162)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F162" s="19" t="str">
+        <f>B162 &amp; " " &amp; LEFT(C162,1) &amp; ". " &amp; IF(LEFT(D162,1) &lt;&gt; "", LEFT(D162,1) &amp; ".","")</f>
         <v>Стасевич А. Л.</v>
       </c>
-      <c r="G160" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H160" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I160" s="3">
+      <c r="G162" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H162" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I162" s="3">
         <v>43077</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A161" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E161" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Столярик Артем Владимирович</v>
-      </c>
-      <c r="F161" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>Столярик А. В.</v>
-      </c>
-      <c r="G161" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H161" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I161" s="3">
-        <v>41045</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A162" s="6">
-        <v>31320</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E162" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Сэу Владислав Иванович</v>
-      </c>
-      <c r="F162" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>Сэу В. И.</v>
-      </c>
-      <c r="G162" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="H162" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="I162" s="7"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B163" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E163" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B163:D163)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F163" s="19" t="str">
+        <f>B163 &amp; " " &amp; LEFT(C163,1) &amp; ". " &amp; IF(LEFT(D163,1) &lt;&gt; "", LEFT(D163,1) &amp; ".","")</f>
+        <v>Столярик А. В.</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H163" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I163" s="3">
+        <v>41045</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A164" s="6">
+        <v>31320</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E164" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B164:D164)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F164" s="19" t="str">
+        <f>B164 &amp; " " &amp; LEFT(C164,1) &amp; ". " &amp; IF(LEFT(D164,1) &lt;&gt; "", LEFT(D164,1) &amp; ".","")</f>
+        <v>Сэу В. И.</v>
+      </c>
+      <c r="G164" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="H164" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="I164" s="7"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A165" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C165" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="D165" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E163" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Телевка Ирина Васильевна</v>
-      </c>
-      <c r="F163" s="19" t="str">
-        <f t="shared" si="5"/>
+      <c r="E165" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B165:D165)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F165" s="19" t="str">
+        <f>B165 &amp; " " &amp; LEFT(C165,1) &amp; ". " &amp; IF(LEFT(D165,1) &lt;&gt; "", LEFT(D165,1) &amp; ".","")</f>
         <v>Телевка И. В.</v>
       </c>
-      <c r="G163" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H163" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I163" s="3">
+      <c r="G165" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H165" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I165" s="3">
         <v>37456</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A164" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E164" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Точенова Лариса Ивановна</v>
-      </c>
-      <c r="F164" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>Точенова Л. И.</v>
-      </c>
-      <c r="G164" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H164" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I164" s="3">
-        <v>43346</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A165" s="13">
-        <v>25119</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E165" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Третьяков Виктор Викторович</v>
-      </c>
-      <c r="F165" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>Третьяков В. В.</v>
-      </c>
-      <c r="G165" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="H165" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="I165" s="3">
-        <v>34680</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
@@ -6625,21 +6645,21 @@
         <v>24</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E166" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Тумар Дмитрий Александрович</v>
+        <v>8</v>
+      </c>
+      <c r="E166" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B166:D166)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F166" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>Тумар Д. А.</v>
+        <f>B166 &amp; " " &amp; LEFT(C166,1) &amp; ". " &amp; IF(LEFT(D166,1) &lt;&gt; "", LEFT(D166,1) &amp; ".","")</f>
+        <v>Точенова Л. И.</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>24</v>
@@ -6648,38 +6668,38 @@
         <v>24</v>
       </c>
       <c r="I166" s="3">
-        <v>41188</v>
+        <v>43346</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="13">
-        <v>30831</v>
+        <v>25119</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E167" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Федосеев Владимир Михайлович</v>
+        <v>43</v>
+      </c>
+      <c r="E167" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B167:D167)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F167" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>Федосеев В. М.</v>
+        <f>B167 &amp; " " &amp; LEFT(C167,1) &amp; ". " &amp; IF(LEFT(D167,1) &lt;&gt; "", LEFT(D167,1) &amp; ".","")</f>
+        <v>Третьяков В. В.</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>280</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I167" s="3">
-        <v>40631</v>
+        <v>34680</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
@@ -6687,483 +6707,476 @@
         <v>24</v>
       </c>
       <c r="B168" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E168" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B168:D168)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F168" s="19" t="str">
+        <f>B168 &amp; " " &amp; LEFT(C168,1) &amp; ". " &amp; IF(LEFT(D168,1) &lt;&gt; "", LEFT(D168,1) &amp; ".","")</f>
+        <v>Тумар Д. А.</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H168" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I168" s="3">
+        <v>41188</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A169" s="13">
+        <v>30831</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E169" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B169:D169)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F169" s="19" t="str">
+        <f>B169 &amp; " " &amp; LEFT(C169,1) &amp; ". " &amp; IF(LEFT(D169,1) &lt;&gt; "", LEFT(D169,1) &amp; ".","")</f>
+        <v>Федосеев В. М.</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H169" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="I169" s="3">
+        <v>40631</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A170" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="C170" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="D170" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E168" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Филиппович Михаил Степанович</v>
-      </c>
-      <c r="F168" s="19" t="str">
-        <f t="shared" si="5"/>
+      <c r="E170" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B170:D170)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F170" s="19" t="str">
+        <f>B170 &amp; " " &amp; LEFT(C170,1) &amp; ". " &amp; IF(LEFT(D170,1) &lt;&gt; "", LEFT(D170,1) &amp; ".","")</f>
         <v>Филиппович М. С.</v>
       </c>
-      <c r="G168" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H168" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I168" s="3">
+      <c r="G170" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H170" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I170" s="3">
         <v>40024</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A169" s="6">
-        <v>31290</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E169" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Фролов Петр Владимирович</v>
-      </c>
-      <c r="F169" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>Фролов П. В.</v>
-      </c>
-      <c r="G169" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="H169" s="16" t="s">
-        <v>369</v>
-      </c>
-      <c r="I169" s="11"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A170" s="13">
-        <v>30971</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E170" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Хацкевич Артем Иванович</v>
-      </c>
-      <c r="F170" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>Хацкевич А. И.</v>
-      </c>
-      <c r="G170" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="H170" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="I170" s="3">
-        <v>43006</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="6">
-        <v>29960</v>
+        <v>31290</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>65</v>
+        <v>335</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E171" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Хацкевич Максим Петрович</v>
+        <v>44</v>
+      </c>
+      <c r="E171" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B171:D171)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F171" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>Хацкевич М. П.</v>
+        <f>B171 &amp; " " &amp; LEFT(C171,1) &amp; ". " &amp; IF(LEFT(D171,1) &lt;&gt; "", LEFT(D171,1) &amp; ".","")</f>
+        <v>Фролов П. В.</v>
       </c>
       <c r="G171" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="H171" s="5" t="s">
+      <c r="H171" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="I171" s="11"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A172" s="13">
+        <v>30971</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E172" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B172:D172)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F172" s="19" t="str">
+        <f>B172 &amp; " " &amp; LEFT(C172,1) &amp; ". " &amp; IF(LEFT(D172,1) &lt;&gt; "", LEFT(D172,1) &amp; ".","")</f>
+        <v>Хацкевич А. И.</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H172" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I172" s="3">
+        <v>43006</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A173" s="6">
+        <v>29960</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E173" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B173:D173)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F173" s="19" t="str">
+        <f>B173 &amp; " " &amp; LEFT(C173,1) &amp; ". " &amp; IF(LEFT(D173,1) &lt;&gt; "", LEFT(D173,1) &amp; ".","")</f>
+        <v>Хацкевич М. П.</v>
+      </c>
+      <c r="G173" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="H173" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="I171" s="1"/>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A172" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B172" s="1" t="s">
+      <c r="I173" s="1"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A174" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="C174" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="D174" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E172" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Ховрат Вера Николаевна</v>
-      </c>
-      <c r="F172" s="19" t="str">
-        <f t="shared" si="5"/>
+      <c r="E174" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B174:D174)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F174" s="19" t="str">
+        <f>B174 &amp; " " &amp; LEFT(C174,1) &amp; ". " &amp; IF(LEFT(D174,1) &lt;&gt; "", LEFT(D174,1) &amp; ".","")</f>
         <v>Ховрат В. Н.</v>
       </c>
-      <c r="G172" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H172" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I172" s="3">
+      <c r="G174" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H174" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I174" s="3">
         <v>42983</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A173" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B173" s="1" t="s">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A175" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C175" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="D175" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E173" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Ходочинская Светлана Ивановна</v>
-      </c>
-      <c r="F173" s="19" t="str">
-        <f t="shared" si="5"/>
+      <c r="E175" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B175:D175)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F175" s="19" t="str">
+        <f>B175 &amp; " " &amp; LEFT(C175,1) &amp; ". " &amp; IF(LEFT(D175,1) &lt;&gt; "", LEFT(D175,1) &amp; ".","")</f>
         <v>Ходочинская С. И.</v>
       </c>
-      <c r="G173" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H173" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I173" s="3">
+      <c r="G175" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H175" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I175" s="3">
         <v>39158</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A174" s="13">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A176" s="13">
         <v>31010</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="B176" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="C176" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="D176" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E174" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Хотько Сергей Эдуардович</v>
-      </c>
-      <c r="F174" s="19" t="str">
-        <f t="shared" si="5"/>
+      <c r="E176" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B176:D176)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F176" s="19" t="str">
+        <f>B176 &amp; " " &amp; LEFT(C176,1) &amp; ". " &amp; IF(LEFT(D176,1) &lt;&gt; "", LEFT(D176,1) &amp; ".","")</f>
         <v>Хотько С. Э.</v>
       </c>
-      <c r="G174" s="1" t="s">
+      <c r="G176" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="H174" s="5" t="s">
+      <c r="H176" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="I174" s="3">
+      <c r="I176" s="3">
         <v>43042</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A175" s="6">
-        <v>31305</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E175" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Шидловский Анатолий Викторович</v>
-      </c>
-      <c r="F175" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>Шидловский А. В.</v>
-      </c>
-      <c r="G175" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="H175" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="I175" s="1"/>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A176" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E176" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Шидловский Олег Иванович</v>
-      </c>
-      <c r="F176" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>Шидловский О. И.</v>
-      </c>
-      <c r="G176" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H176" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I176" s="3">
-        <v>43320</v>
-      </c>
-    </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A177" s="6">
-        <v>31135</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="E177" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Шидловский Олег Игоревич</v>
-      </c>
-      <c r="F177" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>Шидловский О. И.</v>
+      <c r="A177" s="13"/>
+      <c r="B177" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D177" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="E177" s="21"/>
+      <c r="F177" s="21" t="str">
+        <f>B177 &amp; " " &amp; LEFT(C177,1) &amp; ". " &amp; IF(LEFT(D177,1) &lt;&gt; "", LEFT(D177,1) &amp; ".","")</f>
+        <v>Шестак С. И.</v>
       </c>
       <c r="G177" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="H177" s="5" t="s">
+      <c r="H177" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="I177" s="11"/>
+    </row>
+    <row r="178" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="6">
+        <v>31305</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E178" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B178:D178)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F178" s="19" t="str">
+        <f>B178 &amp; " " &amp; LEFT(C178,1) &amp; ". " &amp; IF(LEFT(D178,1) &lt;&gt; "", LEFT(D178,1) &amp; ".","")</f>
+        <v>Шидловский А. В.</v>
+      </c>
+      <c r="G178" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="H178" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="I178" s="1"/>
+    </row>
+    <row r="179" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E179" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B179:D179)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F179" s="19" t="str">
+        <f>B179 &amp; " " &amp; LEFT(C179,1) &amp; ". " &amp; IF(LEFT(D179,1) &lt;&gt; "", LEFT(D179,1) &amp; ".","")</f>
+        <v>Шидловский О. И.</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H179" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I179" s="3">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="6">
+        <v>31135</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E180" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B180:D180)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F180" s="19" t="str">
+        <f>B180 &amp; " " &amp; LEFT(C180,1) &amp; ". " &amp; IF(LEFT(D180,1) &lt;&gt; "", LEFT(D180,1) &amp; ".","")</f>
+        <v>Шидловский О. И.</v>
+      </c>
+      <c r="G180" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="H180" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="I177" s="7"/>
-    </row>
-    <row r="178" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="13"/>
-      <c r="B178" s="1" t="s">
+      <c r="I180" s="7"/>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A181" s="13"/>
+      <c r="B181" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="C181" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="D181" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E178" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Шинкарева Надежда Александровна</v>
-      </c>
-      <c r="F178" s="19" t="str">
-        <f t="shared" si="5"/>
+      <c r="E181" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B181:D181)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F181" s="19" t="str">
+        <f>B181 &amp; " " &amp; LEFT(C181,1) &amp; ". " &amp; IF(LEFT(D181,1) &lt;&gt; "", LEFT(D181,1) &amp; ".","")</f>
         <v>Шинкарева Н. А.</v>
       </c>
-      <c r="G178" s="1" t="s">
+      <c r="G181" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="H178" s="5" t="s">
+      <c r="H181" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="I178" s="3">
+      <c r="I181" s="3">
         <v>42842</v>
       </c>
     </row>
-    <row r="179" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="13">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A182" s="13">
         <v>21971</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B182" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C182" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="D182" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E179" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Шлома Михаил Александрович</v>
-      </c>
-      <c r="F179" s="19" t="str">
-        <f t="shared" si="5"/>
+      <c r="E182" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B182:D182)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F182" s="19" t="str">
+        <f>B182 &amp; " " &amp; LEFT(C182,1) &amp; ". " &amp; IF(LEFT(D182,1) &lt;&gt; "", LEFT(D182,1) &amp; ".","")</f>
         <v>Шлома М. А.</v>
       </c>
-      <c r="G179" s="1" t="s">
+      <c r="G182" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="H179" s="5" t="s">
+      <c r="H182" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="I179" s="3">
+      <c r="I182" s="3">
         <v>28348</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="13"/>
-      <c r="B180" s="1" t="s">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A183" s="13"/>
+      <c r="B183" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="C183" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="D183" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E180" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Шуппо Екатерина Вадимовна</v>
-      </c>
-      <c r="F180" s="19" t="str">
-        <f t="shared" si="5"/>
+      <c r="E183" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B183:D183)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F183" s="19" t="str">
+        <f>B183 &amp; " " &amp; LEFT(C183,1) &amp; ". " &amp; IF(LEFT(D183,1) &lt;&gt; "", LEFT(D183,1) &amp; ".","")</f>
         <v>Шуппо Е. В.</v>
       </c>
-      <c r="G180" s="1" t="s">
+      <c r="G183" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="H180" s="5" t="s">
+      <c r="H183" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="I180" s="3">
+      <c r="I183" s="3">
         <v>43298</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A181" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E181" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Щербак Олег Леонидович</v>
-      </c>
-      <c r="F181" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>Щербак О. Л.</v>
-      </c>
-      <c r="G181" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H181" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I181" s="3">
-        <v>42515</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A182" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E182" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Юркевич Александр Михайлович</v>
-      </c>
-      <c r="F182" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>Юркевич А. М.</v>
-      </c>
-      <c r="G182" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H182" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I182" s="3">
-        <v>41961</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A183" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E183" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Яблонский Владимир Викторович</v>
-      </c>
-      <c r="F183" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>Яблонский В. В.</v>
-      </c>
-      <c r="G183" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H183" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I183" s="3">
-        <v>42167</v>
       </c>
     </row>
     <row r="184" spans="1:9" s="15" customFormat="1" ht="14.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7171,21 +7184,21 @@
         <v>24</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E184" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Якимович Алексей Алексеевич</v>
+        <v>59</v>
+      </c>
+      <c r="E184" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B184:D184)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F184" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>Якимович А. А.</v>
+        <f>B184 &amp; " " &amp; LEFT(C184,1) &amp; ". " &amp; IF(LEFT(D184,1) &lt;&gt; "", LEFT(D184,1) &amp; ".","")</f>
+        <v>Щербак О. Л.</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>24</v>
@@ -7194,7 +7207,7 @@
         <v>24</v>
       </c>
       <c r="I184" s="3">
-        <v>28843</v>
+        <v>42515</v>
       </c>
     </row>
     <row r="185" spans="1:9" s="15" customFormat="1" ht="14.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7202,126 +7215,224 @@
         <v>24</v>
       </c>
       <c r="B185" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E185" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B185:D185)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F185" s="19" t="str">
+        <f>B185 &amp; " " &amp; LEFT(C185,1) &amp; ". " &amp; IF(LEFT(D185,1) &lt;&gt; "", LEFT(D185,1) &amp; ".","")</f>
+        <v>Юркевич А. М.</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H185" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I185" s="3">
+        <v>41961</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" s="15" customFormat="1" ht="14.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E186" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B186:D186)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F186" s="19" t="str">
+        <f>B186 &amp; " " &amp; LEFT(C186,1) &amp; ". " &amp; IF(LEFT(D186,1) &lt;&gt; "", LEFT(D186,1) &amp; ".","")</f>
+        <v>Яблонский В. В.</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H186" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I186" s="3">
+        <v>42167</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" s="15" customFormat="1" ht="14.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E187" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B187:D187)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F187" s="19" t="str">
+        <f>B187 &amp; " " &amp; LEFT(C187,1) &amp; ". " &amp; IF(LEFT(D187,1) &lt;&gt; "", LEFT(D187,1) &amp; ".","")</f>
+        <v>Якимович А. А.</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H187" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I187" s="3">
+        <v>28843</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" s="15" customFormat="1" ht="14.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="C188" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="D188" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E185" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Янукович Татьяна Павловна</v>
-      </c>
-      <c r="F185" s="19" t="str">
-        <f t="shared" si="5"/>
+      <c r="E188" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B188:D188)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F188" s="19" t="str">
+        <f>B188 &amp; " " &amp; LEFT(C188,1) &amp; ". " &amp; IF(LEFT(D188,1) &lt;&gt; "", LEFT(D188,1) &amp; ".","")</f>
         <v>Янукович Т. П.</v>
       </c>
-      <c r="G185" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H185" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I185" s="3">
+      <c r="G188" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H188" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I188" s="3">
         <v>40010</v>
       </c>
     </row>
-    <row r="186" spans="1:9" s="15" customFormat="1" ht="14.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="13">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A189" s="13">
         <v>23922</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B189" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="C189" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="D189" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E186" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Яроховец Александр Федорович</v>
-      </c>
-      <c r="F186" s="19" t="str">
-        <f t="shared" si="5"/>
+      <c r="E189" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B189:D189)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F189" s="19" t="str">
+        <f>B189 &amp; " " &amp; LEFT(C189,1) &amp; ". " &amp; IF(LEFT(D189,1) &lt;&gt; "", LEFT(D189,1) &amp; ".","")</f>
         <v>Яроховец А. Ф.</v>
       </c>
-      <c r="G186" s="1" t="s">
+      <c r="G189" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="H186" s="5" t="s">
+      <c r="H189" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="I186" s="3">
+      <c r="I189" s="3">
         <v>32528</v>
       </c>
     </row>
-    <row r="187" spans="1:9" s="15" customFormat="1" ht="14.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="6">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A190" s="6">
         <v>31224</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B190" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="C190" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="D190" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E187" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Ярошевич Дмитрий Анатольевич</v>
-      </c>
-      <c r="F187" s="19" t="str">
-        <f t="shared" si="5"/>
+      <c r="E190" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B190:D190)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F190" s="19" t="str">
+        <f>B190 &amp; " " &amp; LEFT(C190,1) &amp; ". " &amp; IF(LEFT(D190,1) &lt;&gt; "", LEFT(D190,1) &amp; ".","")</f>
         <v>Ярошевич Д. А.</v>
       </c>
-      <c r="G187" s="11" t="s">
+      <c r="G190" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="H187" s="5" t="s">
+      <c r="H190" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="I187" s="1"/>
-    </row>
-    <row r="188" spans="1:9" s="15" customFormat="1" ht="14.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="13">
+      <c r="I190" s="1"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A191" s="13">
         <v>27596</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B191" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="C191" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="D191" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E188" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>Яскевич Сергей Евгеньевич</v>
-      </c>
-      <c r="F188" s="19" t="str">
-        <f t="shared" si="5"/>
+      <c r="E191" s="19" t="e">
+        <f ca="1">_xlfn.TEXTJOIN(" ",FALSE,B191:D191)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F191" s="19" t="str">
+        <f>B191 &amp; " " &amp; LEFT(C191,1) &amp; ". " &amp; IF(LEFT(D191,1) &lt;&gt; "", LEFT(D191,1) &amp; ".","")</f>
         <v>Яскевич С. Е.</v>
       </c>
-      <c r="G188" s="1" t="s">
+      <c r="G191" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="H188" s="5" t="s">
+      <c r="H191" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="I188" s="3">
+      <c r="I191" s="3">
         <v>41862</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:I191">
+    <sortCondition ref="B2:B191"/>
+    <sortCondition ref="C2:C191"/>
+    <sortCondition ref="D2:D191"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
